--- a/EMM_minim/algoritmus minimalizace/EMM_min_pomocne_data.xlsx
+++ b/EMM_minim/algoritmus minimalizace/EMM_min_pomocne_data.xlsx
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20010" windowHeight="8130" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20010" windowHeight="8130" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="dark_res" sheetId="1" r:id="rId1"/>
     <sheet name="EMM axial" sheetId="2" r:id="rId2"/>
     <sheet name="minimalizace EMM" sheetId="4" r:id="rId3"/>
     <sheet name="EMM_sikmy" sheetId="3" r:id="rId4"/>
+    <sheet name="citlivost" sheetId="5" r:id="rId5"/>
+    <sheet name="nejistota histogramu" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="70">
   <si>
     <t>parametry:</t>
   </si>
@@ -202,6 +204,36 @@
   </si>
   <si>
     <t>step number</t>
+  </si>
+  <si>
+    <t>backgroud ph/s</t>
+  </si>
+  <si>
+    <t>DeltaS/S</t>
+  </si>
+  <si>
+    <t>fot_phi</t>
+  </si>
+  <si>
+    <t>count rate</t>
+  </si>
+  <si>
+    <t>background count</t>
+  </si>
+  <si>
+    <t>t_res [ps]</t>
+  </si>
+  <si>
+    <t>t_measure[s]</t>
+  </si>
+  <si>
+    <t>sigma_hist_test_256.txt</t>
+  </si>
+  <si>
+    <t>sigma_hist_test_256_pulcount.txt</t>
+  </si>
+  <si>
+    <t>sigma_hist_test_128.dat</t>
   </si>
 </sst>
 </file>
@@ -2375,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,7 +2557,7 @@
   <dimension ref="C3:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="O8" sqref="O8:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,4 +2881,466 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>3200</v>
+      </c>
+      <c r="E5">
+        <v>120</v>
+      </c>
+      <c r="F5">
+        <v>256</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>3200</v>
+      </c>
+      <c r="E6">
+        <v>120</v>
+      </c>
+      <c r="F6">
+        <v>256</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>3200</v>
+      </c>
+      <c r="E7">
+        <v>120</v>
+      </c>
+      <c r="F7">
+        <v>256</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>3200</v>
+      </c>
+      <c r="E8">
+        <v>120</v>
+      </c>
+      <c r="F8">
+        <v>256</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>3200</v>
+      </c>
+      <c r="E9">
+        <v>120</v>
+      </c>
+      <c r="F9">
+        <v>256</v>
+      </c>
+      <c r="G9">
+        <v>60</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>3200</v>
+      </c>
+      <c r="E10">
+        <v>120</v>
+      </c>
+      <c r="F10">
+        <v>256</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>3000</v>
+      </c>
+      <c r="E11">
+        <v>130</v>
+      </c>
+      <c r="F11">
+        <v>256</v>
+      </c>
+      <c r="G11">
+        <v>150</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1500</v>
+      </c>
+      <c r="E14">
+        <v>120</v>
+      </c>
+      <c r="F14">
+        <v>256</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>1500</v>
+      </c>
+      <c r="E15">
+        <v>120</v>
+      </c>
+      <c r="F15">
+        <v>256</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1500</v>
+      </c>
+      <c r="E16">
+        <v>120</v>
+      </c>
+      <c r="F16">
+        <v>256</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1500</v>
+      </c>
+      <c r="E17">
+        <v>120</v>
+      </c>
+      <c r="F17">
+        <v>256</v>
+      </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1500</v>
+      </c>
+      <c r="E18">
+        <v>120</v>
+      </c>
+      <c r="F18">
+        <v>256</v>
+      </c>
+      <c r="G18">
+        <v>60</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1500</v>
+      </c>
+      <c r="E19">
+        <v>120</v>
+      </c>
+      <c r="F19">
+        <v>256</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1500</v>
+      </c>
+      <c r="E20">
+        <v>120</v>
+      </c>
+      <c r="F20">
+        <v>256</v>
+      </c>
+      <c r="G20">
+        <v>150</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>3000</v>
+      </c>
+      <c r="E24">
+        <v>120</v>
+      </c>
+      <c r="F24">
+        <v>128</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>3000</v>
+      </c>
+      <c r="E25">
+        <v>120</v>
+      </c>
+      <c r="F25">
+        <v>128</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>3000</v>
+      </c>
+      <c r="E26">
+        <v>120</v>
+      </c>
+      <c r="F26">
+        <v>128</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>3000</v>
+      </c>
+      <c r="E27">
+        <v>120</v>
+      </c>
+      <c r="F27">
+        <v>128</v>
+      </c>
+      <c r="G27">
+        <v>40</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>2900</v>
+      </c>
+      <c r="E28">
+        <v>120</v>
+      </c>
+      <c r="F28">
+        <v>128</v>
+      </c>
+      <c r="G28">
+        <v>60</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>3000</v>
+      </c>
+      <c r="E29">
+        <v>120</v>
+      </c>
+      <c r="F29">
+        <v>128</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>2900</v>
+      </c>
+      <c r="E30">
+        <v>120</v>
+      </c>
+      <c r="F30">
+        <v>128</v>
+      </c>
+      <c r="G30">
+        <v>150</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EMM_minim/algoritmus minimalizace/EMM_min_pomocne_data.xlsx
+++ b/EMM_minim/algoritmus minimalizace/EMM_min_pomocne_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20010" windowHeight="8130" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20010" windowHeight="8130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dark_res" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="citlivost" sheetId="5" r:id="rId5"/>
     <sheet name="nejistota histogramu" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="113">
   <si>
     <t>parametry:</t>
   </si>
@@ -200,9 +200,6 @@
     <t>t_measure</t>
   </si>
   <si>
-    <t>EMM_min_z_step1</t>
-  </si>
-  <si>
     <t>step number</t>
   </si>
   <si>
@@ -234,13 +231,148 @@
   </si>
   <si>
     <t>sigma_hist_test_128.dat</t>
+  </si>
+  <si>
+    <t>Nastavení intenzity a frekvence 866</t>
+  </si>
+  <si>
+    <t>nejprve jsem nastavil frekvenci cooling laseru cca -30 MHz detun</t>
+  </si>
+  <si>
+    <t>pak jsem scanem frekvence 866 nalezl frekvenci s max. countama</t>
+  </si>
+  <si>
+    <t>200 (2800)</t>
+  </si>
+  <si>
+    <t>120 cca</t>
+  </si>
+  <si>
+    <t>t_mer [s]</t>
+  </si>
+  <si>
+    <t>zacina mi blbout county -- myslim, ze hodne plave frekvence 866</t>
+  </si>
+  <si>
+    <t>zkusim znovu merit od 15 MHz</t>
+  </si>
+  <si>
+    <t>plave</t>
+  </si>
+  <si>
+    <t>ideal_detuning_searcht</t>
+  </si>
+  <si>
+    <t>205,4 (3700)</t>
+  </si>
+  <si>
+    <t>I_sikmy odpovidajici 2800  na DDS</t>
+  </si>
+  <si>
+    <t>0,5 uW</t>
+  </si>
+  <si>
+    <t>velmi zhruba</t>
+  </si>
+  <si>
+    <t>17,5 uw</t>
+  </si>
+  <si>
+    <t>I_axi odpovidajici 222 na DDS</t>
+  </si>
+  <si>
+    <t>2000 (186)</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>03_05_20_EMM_min_z_step1</t>
+  </si>
+  <si>
+    <t>kolik chci fotonů?</t>
+  </si>
+  <si>
+    <t>t_measure_ideal</t>
+  </si>
+  <si>
+    <t>03_05_20_EMM_min_z_step2</t>
+  </si>
+  <si>
+    <t>03_05_20_EMM_min_z_step3</t>
+  </si>
+  <si>
+    <t>03_05_20_EMM_min_z_step4</t>
+  </si>
+  <si>
+    <t>DeltaS_S_ratio</t>
+  </si>
+  <si>
+    <t>minimalizace v xz</t>
+  </si>
+  <si>
+    <t>ph/s background</t>
+  </si>
+  <si>
+    <t>03_05_20_axial_EMM_min_citlivost_test</t>
+  </si>
+  <si>
+    <t>trace #</t>
+  </si>
+  <si>
+    <t>0.00859723</t>
+  </si>
+  <si>
+    <t>I_sikmy odpovidajici 2600 na DDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,7 uW </t>
+  </si>
+  <si>
+    <t>divne, mereno powermeterem velmi pofiderni metodou</t>
+  </si>
+  <si>
+    <t>03_05_20_EMM_min_z_final</t>
+  </si>
+  <si>
+    <t>207 (2700)</t>
+  </si>
+  <si>
+    <t>03_05_20_EMM_min_xz_step1</t>
+  </si>
+  <si>
+    <t>03_05_20_EMM_min_xz_step2</t>
+  </si>
+  <si>
+    <t>03_05_20_EMM_min_xz_step3</t>
+  </si>
+  <si>
+    <t>03_05_20_EMM_min_xz_multiple</t>
+  </si>
+  <si>
+    <t>0 a 1 jsou stejne jako v predchozim filu</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>3.1044568458968698</t>
+  </si>
+  <si>
+    <t>-2.8552522516690897</t>
+  </si>
+  <si>
+    <t>1.0377876504474617</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +389,11 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -279,9 +416,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -297,6 +441,1855 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'minimalizace EMM'!$O$16:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.151</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.153</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'minimalizace EMM'!$W$16:$W$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.8020000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3089999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.49E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00000">
+                  <c:v>1.1610000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.43E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E30-4AF2-A845-279ADD05F123}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="426932280"/>
+        <c:axId val="426932608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="426932280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426932608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="426932608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426932280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'minimalizace EMM'!$L$35:$L$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'minimalizace EMM'!$V$35:$V$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.0883089999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21716887000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.406466E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.943139E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2009400000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2009500000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1623780000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0428000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1702-4D6F-8F59-894D36278F7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="432022424"/>
+        <c:axId val="432019800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="432022424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432019800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="432019800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432022424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graf 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,18 +2585,18 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -617,7 +2610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7">
       <c r="C5">
         <v>1</v>
       </c>
@@ -631,7 +2624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7">
       <c r="C6">
         <v>2</v>
       </c>
@@ -648,7 +2641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7">
       <c r="C7">
         <v>3</v>
       </c>
@@ -665,7 +2658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:7">
       <c r="C8">
         <v>4</v>
       </c>
@@ -682,7 +2675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7">
       <c r="C9">
         <v>5</v>
       </c>
@@ -709,11 +2702,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W54"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
@@ -729,7 +2722,7 @@
     <col min="16" max="16" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:17">
       <c r="C2" t="s">
         <v>17</v>
       </c>
@@ -737,17 +2730,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:17">
       <c r="C3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:17">
       <c r="C4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:17">
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -791,7 +2784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:17">
       <c r="C8">
         <v>225</v>
       </c>
@@ -835,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:17">
       <c r="C9">
         <v>225</v>
       </c>
@@ -876,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:17">
       <c r="C10">
         <v>225</v>
       </c>
@@ -917,7 +2910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:17">
       <c r="C11">
         <v>225</v>
       </c>
@@ -958,7 +2951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:17">
       <c r="C12">
         <v>225</v>
       </c>
@@ -999,7 +2992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:17">
       <c r="C13">
         <v>225</v>
       </c>
@@ -1040,7 +3033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:17">
       <c r="C14">
         <v>225</v>
       </c>
@@ -1081,7 +3074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:17">
       <c r="C15">
         <v>225</v>
       </c>
@@ -1122,7 +3115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:17">
       <c r="C16">
         <v>225</v>
       </c>
@@ -1166,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="C17">
         <v>225</v>
       </c>
@@ -1207,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="C18">
         <v>225</v>
       </c>
@@ -1248,7 +3241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="C19">
         <v>225</v>
       </c>
@@ -1289,7 +3282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="C20">
         <v>225</v>
       </c>
@@ -1330,7 +3323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="C21">
         <v>225</v>
       </c>
@@ -1371,7 +3364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="C22">
         <v>225</v>
       </c>
@@ -1412,7 +3405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="C23">
         <v>225</v>
       </c>
@@ -1453,7 +3446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="C24">
         <v>225</v>
       </c>
@@ -1500,7 +3493,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="C25">
         <v>225</v>
       </c>
@@ -1541,12 +3534,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1605,7 +3598,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32">
         <v>1212</v>
       </c>
@@ -1655,7 +3648,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33">
         <v>1180</v>
       </c>
@@ -1699,7 +3692,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23">
       <c r="A34">
         <v>1203</v>
       </c>
@@ -1734,7 +3727,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23">
       <c r="A35">
         <v>1212</v>
       </c>
@@ -1769,7 +3762,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23">
       <c r="A36">
         <v>1142</v>
       </c>
@@ -1804,7 +3797,7 @@
         <v>29.969000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23">
       <c r="T37">
         <v>106</v>
       </c>
@@ -1818,12 +3811,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23">
       <c r="A44">
         <v>1207</v>
       </c>
@@ -1873,7 +3866,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23">
       <c r="A45">
         <v>1204</v>
       </c>
@@ -1893,7 +3886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23">
       <c r="A46">
         <v>1202</v>
       </c>
@@ -1949,7 +3942,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23">
       <c r="A47">
         <v>1202</v>
       </c>
@@ -2005,7 +3998,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23">
       <c r="A48">
         <v>1202</v>
       </c>
@@ -2061,7 +4054,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23">
       <c r="A49">
         <v>1202</v>
       </c>
@@ -2117,7 +4110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23">
       <c r="A50">
         <v>1202</v>
       </c>
@@ -2173,7 +4166,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23">
       <c r="A51">
         <v>1170</v>
       </c>
@@ -2229,7 +4222,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23">
       <c r="A52">
         <v>1170</v>
       </c>
@@ -2285,7 +4278,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23">
       <c r="A53">
         <v>1175</v>
       </c>
@@ -2344,7 +4337,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23">
       <c r="A54">
         <v>1175</v>
       </c>
@@ -2405,52 +4398,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S10"/>
+  <dimension ref="A2:X46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="P19" workbookViewId="0">
+      <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
     <col min="11" max="11" width="12.140625" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" customWidth="1"/>
-    <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="24" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="15" width="24" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" customWidth="1"/>
+    <col min="18" max="18" width="31" customWidth="1"/>
+    <col min="19" max="19" width="30.42578125" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" customWidth="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
+    <col min="23" max="23" width="24" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23">
       <c r="B2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23">
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23">
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23">
       <c r="C8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23">
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -2488,45 +4506,54 @@
         <v>14</v>
       </c>
       <c r="O9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" t="s">
         <v>56</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
+        <v>89</v>
+      </c>
+      <c r="R9" t="s">
         <v>57</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>15</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
         <v>18</v>
       </c>
-      <c r="S9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23">
       <c r="C10">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="E10">
-        <v>15</v>
+        <v>17.46</v>
       </c>
       <c r="F10">
-        <v>94.93</v>
+        <v>88.77</v>
       </c>
       <c r="G10">
-        <v>377611220</v>
+        <v>377611143</v>
       </c>
       <c r="H10">
-        <v>346000224</v>
+        <v>346000230</v>
       </c>
       <c r="I10">
-        <v>580</v>
+        <v>3600</v>
       </c>
       <c r="J10">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="K10">
         <v>500</v>
@@ -2535,20 +4562,1357 @@
         <v>500</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="N10">
         <v>50</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="O10">
+        <f>(K10-L10)/(K10+L10)</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>256</v>
+      </c>
+      <c r="Q10">
+        <f xml:space="preserve"> $C$6/(I10-J10)</f>
+        <v>87.463556851311949</v>
+      </c>
+      <c r="R10">
+        <v>90</v>
+      </c>
+      <c r="S10" t="s">
+        <v>87</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23">
+      <c r="C11">
+        <v>222</v>
+      </c>
+      <c r="E11">
+        <v>17.46</v>
+      </c>
+      <c r="F11">
+        <v>88.7</v>
+      </c>
+      <c r="G11">
+        <v>377611145</v>
+      </c>
+      <c r="H11">
+        <v>346000240</v>
+      </c>
+      <c r="I11">
+        <v>3950</v>
+      </c>
+      <c r="J11">
+        <v>170</v>
+      </c>
+      <c r="K11">
+        <v>530</v>
+      </c>
+      <c r="L11">
+        <v>470</v>
+      </c>
+      <c r="M11">
+        <v>17</v>
+      </c>
+      <c r="N11">
+        <v>50</v>
+      </c>
+      <c r="O11">
+        <f>(K11-L11)/(K11+L11)</f>
+        <v>0.06</v>
+      </c>
+      <c r="P11">
+        <v>256</v>
+      </c>
+      <c r="Q11">
+        <f xml:space="preserve"> $C$6/(I11-J11)</f>
+        <v>79.365079365079367</v>
+      </c>
+      <c r="R11">
+        <v>80</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="C13">
+        <v>222</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13">
+        <v>17.46</v>
+      </c>
+      <c r="F13">
+        <v>88.77</v>
+      </c>
+      <c r="G13">
+        <v>377611143</v>
+      </c>
+      <c r="H13">
+        <v>346000225</v>
+      </c>
+      <c r="I13">
+        <v>3100</v>
+      </c>
+      <c r="J13">
+        <v>180</v>
+      </c>
+      <c r="K13">
+        <v>581</v>
+      </c>
+      <c r="L13">
+        <v>419</v>
+      </c>
+      <c r="M13">
+        <v>17</v>
+      </c>
+      <c r="N13">
+        <v>50</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O12:O28" si="0">(K13-L13)/(K13+L13)</f>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="P13">
+        <v>256</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q12:Q28" si="1" xml:space="preserve"> $C$6/(I13-J13)</f>
+        <v>102.73972602739725</v>
+      </c>
+      <c r="R13">
+        <v>100</v>
+      </c>
+      <c r="S13" t="s">
+        <v>90</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23">
+      <c r="C14">
+        <v>222</v>
+      </c>
+      <c r="I14">
+        <v>3150</v>
+      </c>
+      <c r="J14">
+        <v>170</v>
+      </c>
+      <c r="K14">
+        <v>599</v>
+      </c>
+      <c r="L14">
+        <v>401</v>
+      </c>
+      <c r="M14">
+        <v>17</v>
+      </c>
+      <c r="N14">
+        <v>50</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="P14">
+        <v>256</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>100.67114093959732</v>
+      </c>
+      <c r="R14">
+        <v>100</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>9.11E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23">
+      <c r="C16">
+        <v>222</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16">
+        <v>17.46</v>
+      </c>
+      <c r="F16">
+        <v>88.77</v>
+      </c>
+      <c r="G16">
+        <v>37611134</v>
+      </c>
+      <c r="H16">
+        <v>346000230</v>
+      </c>
+      <c r="I16">
+        <v>3300</v>
+      </c>
+      <c r="J16">
+        <v>190</v>
+      </c>
+      <c r="K16">
+        <v>578</v>
+      </c>
+      <c r="L16">
+        <v>422</v>
+      </c>
+      <c r="M16">
+        <v>17</v>
+      </c>
+      <c r="N16">
+        <v>50</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>0.156</v>
+      </c>
+      <c r="P16">
+        <v>256</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>96.463022508038591</v>
+      </c>
+      <c r="R16">
+        <v>95</v>
+      </c>
+      <c r="S16" t="s">
+        <v>91</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>1.8020000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="C17">
+        <v>222</v>
+      </c>
+      <c r="D17">
+        <v>186</v>
+      </c>
+      <c r="I17">
+        <v>3300</v>
+      </c>
+      <c r="J17">
+        <v>190</v>
+      </c>
+      <c r="K17">
+        <v>575</v>
+      </c>
+      <c r="L17">
+        <v>425</v>
+      </c>
+      <c r="M17">
+        <v>17</v>
+      </c>
+      <c r="N17">
+        <v>50</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="P17">
+        <v>256</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>96.463022508038591</v>
+      </c>
+      <c r="R17">
+        <v>95</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>1.3089999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="C19">
+        <v>222</v>
+      </c>
+      <c r="D19">
+        <v>186</v>
+      </c>
+      <c r="E19">
+        <v>17.46</v>
+      </c>
+      <c r="F19">
+        <v>88.77</v>
+      </c>
+      <c r="I19">
+        <v>3350</v>
+      </c>
+      <c r="J19">
+        <v>190</v>
+      </c>
+      <c r="K19">
+        <v>571</v>
+      </c>
+      <c r="L19">
+        <v>429</v>
+      </c>
+      <c r="M19">
+        <v>17</v>
+      </c>
+      <c r="N19">
+        <v>50</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="P19">
+        <v>256</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>94.936708860759495</v>
+      </c>
+      <c r="R19">
+        <v>95</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>4</v>
+      </c>
+      <c r="W19">
+        <v>3.49E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="Q20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="C21">
+        <v>222</v>
+      </c>
+      <c r="D21">
+        <v>186</v>
+      </c>
+      <c r="E21">
+        <v>17.46</v>
+      </c>
+      <c r="F21">
+        <v>88.77</v>
+      </c>
+      <c r="G21">
+        <v>377611128</v>
+      </c>
+      <c r="H21">
+        <v>346000215</v>
+      </c>
+      <c r="I21">
+        <v>3350</v>
+      </c>
+      <c r="J21">
+        <v>190</v>
+      </c>
+      <c r="K21">
+        <v>571</v>
+      </c>
+      <c r="L21">
+        <v>429</v>
+      </c>
+      <c r="M21">
+        <v>17</v>
+      </c>
+      <c r="N21">
+        <v>50</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="P21">
+        <v>256</v>
+      </c>
+      <c r="R21">
+        <v>95</v>
+      </c>
+      <c r="S21" t="s">
+        <v>92</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>4</v>
+      </c>
+      <c r="W21">
+        <v>3.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="I22">
+        <v>3300</v>
+      </c>
+      <c r="J22">
+        <v>190</v>
+      </c>
+      <c r="K22">
+        <v>577</v>
+      </c>
+      <c r="L22">
+        <v>423</v>
+      </c>
+      <c r="M22">
+        <v>17</v>
+      </c>
+      <c r="N22">
+        <v>50</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>0.154</v>
+      </c>
+      <c r="P22">
+        <v>256</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>96.463022508038591</v>
+      </c>
+      <c r="R22">
+        <v>95</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>4</v>
+      </c>
+      <c r="W22">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="C24">
+        <v>222</v>
+      </c>
+      <c r="D24">
+        <v>186</v>
+      </c>
+      <c r="E24">
+        <v>17.46</v>
+      </c>
+      <c r="F24">
+        <v>88.77</v>
+      </c>
+      <c r="I24">
+        <v>3250</v>
+      </c>
+      <c r="J24">
+        <v>180</v>
+      </c>
+      <c r="K24">
+        <v>574</v>
+      </c>
+      <c r="L24">
+        <v>426</v>
+      </c>
+      <c r="M24">
+        <v>17</v>
+      </c>
+      <c r="N24">
+        <v>50</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="P24">
+        <v>256</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>97.719869706840385</v>
+      </c>
+      <c r="R24">
+        <v>100</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>4</v>
+      </c>
+      <c r="W24">
+        <v>1.9400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="I25">
+        <v>3250</v>
+      </c>
+      <c r="J25">
+        <v>180</v>
+      </c>
+      <c r="K25" s="1">
+        <v>576</v>
+      </c>
+      <c r="L25" s="1">
+        <v>424</v>
+      </c>
+      <c r="M25" s="1">
+        <v>17</v>
+      </c>
+      <c r="N25" s="1">
+        <v>50</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>0.152</v>
+      </c>
+      <c r="P25">
+        <v>256</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>97.719869706840385</v>
+      </c>
+      <c r="R25">
+        <v>100</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>4</v>
+      </c>
+      <c r="W25" s="4">
+        <v>1.1610000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="C26">
+        <v>222</v>
+      </c>
+      <c r="D26">
+        <v>186</v>
+      </c>
+      <c r="E26">
+        <v>17.46</v>
+      </c>
+      <c r="F26">
+        <v>88.77</v>
+      </c>
+      <c r="G26">
+        <v>377611139</v>
+      </c>
+      <c r="H26">
+        <v>46000230</v>
+      </c>
+      <c r="I26">
+        <v>3250</v>
+      </c>
+      <c r="J26">
+        <v>180</v>
+      </c>
+      <c r="K26">
+        <v>575.5</v>
+      </c>
+      <c r="L26">
+        <v>424.5</v>
+      </c>
+      <c r="M26">
+        <v>17</v>
+      </c>
+      <c r="N26">
+        <v>50</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>0.151</v>
+      </c>
+      <c r="P26">
+        <v>256</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>97.719869706840385</v>
+      </c>
+      <c r="R26">
+        <v>100</v>
+      </c>
+      <c r="T26">
+        <v>4</v>
+      </c>
+      <c r="U26">
+        <v>4</v>
+      </c>
+      <c r="W26">
+        <v>1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="I27">
+        <v>3300</v>
+      </c>
+      <c r="J27">
+        <v>190</v>
+      </c>
+      <c r="K27">
+        <v>576.5</v>
+      </c>
+      <c r="L27">
+        <v>423.5</v>
+      </c>
+      <c r="M27">
+        <v>17</v>
+      </c>
+      <c r="N27">
+        <v>50</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>0.153</v>
+      </c>
+      <c r="P27">
+        <v>256</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>96.463022508038591</v>
+      </c>
+      <c r="R27">
+        <v>100</v>
+      </c>
+      <c r="T27">
+        <v>5</v>
+      </c>
+      <c r="U27">
+        <v>4</v>
+      </c>
+      <c r="W27">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="C28">
+        <v>222</v>
+      </c>
+      <c r="D28">
+        <v>18</v>
+      </c>
+      <c r="E28">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>88.77</v>
+      </c>
+      <c r="G28">
+        <v>377611145</v>
+      </c>
+      <c r="H28">
+        <v>346000231</v>
+      </c>
+      <c r="I28">
+        <v>3200</v>
+      </c>
+      <c r="J28">
+        <v>190</v>
+      </c>
+      <c r="K28">
+        <v>576</v>
+      </c>
+      <c r="L28">
+        <v>424</v>
+      </c>
+      <c r="M28">
+        <v>17</v>
+      </c>
+      <c r="N28">
+        <v>50</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>0.152</v>
+      </c>
+      <c r="P28">
+        <v>256</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>99.667774086378742</v>
+      </c>
+      <c r="R28">
+        <v>100</v>
+      </c>
+      <c r="S28" t="s">
+        <v>102</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>1.43E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" t="s">
+        <v>86</v>
+      </c>
+      <c r="O31" t="s">
+        <v>56</v>
+      </c>
+      <c r="P31" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>57</v>
+      </c>
+      <c r="R31" t="s">
+        <v>15</v>
+      </c>
+      <c r="S31" t="s">
+        <v>18</v>
+      </c>
+      <c r="T31" t="s">
         <v>58</v>
       </c>
-      <c r="R10">
+      <c r="V31" t="s">
+        <v>93</v>
+      </c>
+      <c r="W31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32">
+        <v>18</v>
+      </c>
+      <c r="E32">
+        <v>88.77</v>
+      </c>
+      <c r="F32">
+        <v>377611150</v>
+      </c>
+      <c r="G32">
+        <v>346000236</v>
+      </c>
+      <c r="H32">
+        <v>3300</v>
+      </c>
+      <c r="I32">
+        <v>130</v>
+      </c>
+      <c r="J32">
+        <v>576</v>
+      </c>
+      <c r="K32">
+        <v>424</v>
+      </c>
+      <c r="L32">
+        <v>17</v>
+      </c>
+      <c r="M32">
+        <v>50</v>
+      </c>
+      <c r="O32">
+        <v>256</v>
+      </c>
+      <c r="P32">
+        <f>$C$6/(H32-I32)</f>
+        <v>94.637223974763401</v>
+      </c>
+      <c r="Q32">
+        <v>95</v>
+      </c>
+      <c r="R32" t="s">
+        <v>104</v>
+      </c>
+      <c r="S32">
         <v>0</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0.61909848000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="3:24">
+      <c r="C33">
+        <v>207</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>88.77</v>
+      </c>
+      <c r="H33">
+        <v>3750</v>
+      </c>
+      <c r="I33">
+        <v>130</v>
+      </c>
+      <c r="J33">
+        <v>576</v>
+      </c>
+      <c r="K33">
+        <v>424</v>
+      </c>
+      <c r="L33">
+        <v>35</v>
+      </c>
+      <c r="M33">
+        <v>50</v>
+      </c>
+      <c r="O33">
+        <v>256</v>
+      </c>
+      <c r="P33">
+        <f>$C$6/(H33-I33)</f>
+        <v>82.872928176795583</v>
+      </c>
+      <c r="Q33">
+        <v>80</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0.23714600999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="3:24">
+      <c r="C35">
+        <v>207</v>
+      </c>
+      <c r="D35">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <v>88.77</v>
+      </c>
+      <c r="F35">
+        <v>377611148</v>
+      </c>
+      <c r="H35">
+        <v>3600</v>
+      </c>
+      <c r="I35">
+        <v>140</v>
+      </c>
+      <c r="J35">
+        <v>576</v>
+      </c>
+      <c r="K35">
+        <v>424</v>
+      </c>
+      <c r="L35">
+        <v>43.5</v>
+      </c>
+      <c r="M35">
+        <v>50</v>
+      </c>
+      <c r="O35">
+        <v>256</v>
+      </c>
+      <c r="P35">
+        <f t="shared" ref="P34:P36" si="2">$C$6/(H35-I35)</f>
+        <v>86.705202312138724</v>
+      </c>
+      <c r="Q35">
+        <v>85</v>
+      </c>
+      <c r="R35" t="s">
+        <v>105</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="V35" s="3">
+        <v>3.0883089999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:24">
+      <c r="C36">
+        <v>207</v>
+      </c>
+      <c r="D36">
+        <v>18</v>
+      </c>
+      <c r="E36">
+        <v>88.77</v>
+      </c>
+      <c r="H36">
+        <v>3600</v>
+      </c>
+      <c r="I36">
+        <v>140</v>
+      </c>
+      <c r="J36">
+        <v>576</v>
+      </c>
+      <c r="K36">
+        <v>424</v>
+      </c>
+      <c r="L36">
+        <v>49.5</v>
+      </c>
+      <c r="M36">
+        <v>50</v>
+      </c>
+      <c r="O36">
+        <v>256</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>86.705202312138724</v>
+      </c>
+      <c r="Q36">
+        <v>85</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>2</v>
+      </c>
+      <c r="V36" s="3">
+        <v>0.21716887000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24">
+      <c r="C38">
+        <v>207</v>
+      </c>
+      <c r="D38">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>88.77</v>
+      </c>
+      <c r="F38">
+        <v>377611151</v>
+      </c>
+      <c r="G38">
+        <v>346000236</v>
+      </c>
+      <c r="H38">
+        <v>3600</v>
+      </c>
+      <c r="I38">
+        <v>140</v>
+      </c>
+      <c r="J38">
+        <v>576</v>
+      </c>
+      <c r="K38">
+        <v>424</v>
+      </c>
+      <c r="L38">
+        <v>43</v>
+      </c>
+      <c r="M38">
+        <v>50</v>
+      </c>
+      <c r="O38">
+        <v>256</v>
+      </c>
+      <c r="Q38">
+        <v>85</v>
+      </c>
+      <c r="R38" t="s">
+        <v>106</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="V38" s="3">
+        <v>1.406466E-2</v>
+      </c>
+      <c r="W38" s="3">
+        <v>-2.6740088166988101</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24">
+      <c r="H39">
+        <v>3550</v>
+      </c>
+      <c r="I39">
+        <v>130</v>
+      </c>
+      <c r="J39">
+        <v>576</v>
+      </c>
+      <c r="K39">
+        <v>424</v>
+      </c>
+      <c r="L39">
+        <v>42</v>
+      </c>
+      <c r="M39">
+        <v>50</v>
+      </c>
+      <c r="O39">
+        <v>256</v>
+      </c>
+      <c r="Q39">
+        <v>85</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="V39" s="3">
+        <v>1.943139E-2</v>
+      </c>
+      <c r="W39" s="3">
+        <v>1.1591762719436201</v>
+      </c>
+    </row>
+    <row r="41" spans="3:24">
+      <c r="C41">
+        <v>207</v>
+      </c>
+      <c r="D41">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>88.77</v>
+      </c>
+      <c r="F41">
+        <v>37761151</v>
+      </c>
+      <c r="G41">
+        <v>346000231</v>
+      </c>
+      <c r="H41">
+        <v>3550</v>
+      </c>
+      <c r="I41">
+        <v>130</v>
+      </c>
+      <c r="J41">
+        <v>576</v>
+      </c>
+      <c r="K41">
+        <v>424</v>
+      </c>
+      <c r="L41">
+        <v>42.5</v>
+      </c>
+      <c r="M41">
+        <v>50</v>
+      </c>
+      <c r="O41">
+        <v>256</v>
+      </c>
+      <c r="Q41">
+        <v>85</v>
+      </c>
+      <c r="R41" t="s">
+        <v>107</v>
+      </c>
+      <c r="S41">
+        <v>2</v>
+      </c>
+      <c r="V41" s="3">
+        <v>5.2009400000000003E-3</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="3:24">
+      <c r="H42">
+        <v>3550</v>
+      </c>
+      <c r="I42">
+        <v>130</v>
+      </c>
+      <c r="L42">
+        <v>42.7</v>
+      </c>
+      <c r="M42">
+        <v>50</v>
+      </c>
+      <c r="O42">
+        <v>256</v>
+      </c>
+      <c r="Q42">
+        <v>85</v>
+      </c>
+      <c r="S42">
+        <v>3</v>
+      </c>
+      <c r="V42" s="3">
+        <v>5.2009500000000002E-3</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="3:24">
+      <c r="H43">
+        <v>3550</v>
+      </c>
+      <c r="I43">
+        <v>130</v>
+      </c>
+      <c r="J43">
+        <v>576</v>
+      </c>
+      <c r="K43">
+        <v>424</v>
+      </c>
+      <c r="L43">
+        <v>41</v>
+      </c>
+      <c r="M43">
+        <v>50</v>
+      </c>
+      <c r="O43">
+        <v>256</v>
+      </c>
+      <c r="Q43">
+        <v>85</v>
+      </c>
+      <c r="S43">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3">
+        <v>5.1623780000000001E-2</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="3:24">
+      <c r="C44">
+        <v>207</v>
+      </c>
+      <c r="D44">
+        <v>18</v>
+      </c>
+      <c r="E44">
+        <v>88.77</v>
+      </c>
+      <c r="F44">
+        <v>37761154</v>
+      </c>
+      <c r="G44">
+        <v>346000230</v>
+      </c>
+      <c r="H44">
+        <v>3550</v>
+      </c>
+      <c r="I44">
+        <v>130</v>
+      </c>
+      <c r="J44">
+        <v>576</v>
+      </c>
+      <c r="K44">
+        <v>424</v>
+      </c>
+      <c r="L44">
+        <v>42.8</v>
+      </c>
+      <c r="M44">
+        <v>50</v>
+      </c>
+      <c r="O44">
+        <v>256</v>
+      </c>
+      <c r="Q44">
+        <v>85</v>
+      </c>
+      <c r="S44">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
+        <v>5.0428000000000001E-3</v>
+      </c>
+      <c r="W44" s="3">
+        <v>-2.91013747677734</v>
+      </c>
+    </row>
+    <row r="45" spans="3:24">
+      <c r="L45">
+        <v>42.9</v>
+      </c>
+      <c r="M45">
+        <v>50</v>
+      </c>
+      <c r="O45">
+        <v>256</v>
+      </c>
+      <c r="Q45">
+        <v>85</v>
+      </c>
+      <c r="S45">
+        <v>6</v>
+      </c>
+      <c r="V45" s="3">
+        <v>6.8193200000000002E-3</v>
+      </c>
+      <c r="W45" s="3">
+        <v>-2.2185900134407102</v>
+      </c>
+    </row>
+    <row r="46" spans="3:24">
+      <c r="H46">
+        <v>3550</v>
+      </c>
+      <c r="I46">
+        <v>130</v>
+      </c>
+      <c r="J46">
+        <v>576</v>
+      </c>
+      <c r="K46">
+        <v>424</v>
+      </c>
+      <c r="L46">
+        <v>42.95</v>
+      </c>
+      <c r="M46">
+        <v>50</v>
+      </c>
+      <c r="O46">
+        <v>256</v>
+      </c>
+      <c r="Q46">
+        <v>85</v>
+      </c>
+      <c r="S46">
+        <v>7</v>
+      </c>
+      <c r="V46" s="3">
+        <v>1.379608E-2</v>
+      </c>
+      <c r="W46">
+        <v>-2.6352252493868402</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2560,7 +5924,7 @@
       <selection activeCell="O8" sqref="O8:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -2574,7 +5938,7 @@
     <col min="15" max="15" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:16">
       <c r="C3" t="s">
         <v>17</v>
       </c>
@@ -2582,17 +5946,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16">
       <c r="C4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16">
       <c r="C5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -2630,7 +5994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16">
       <c r="D9" t="s">
         <v>36</v>
       </c>
@@ -2668,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16">
       <c r="D10" t="s">
         <v>37</v>
       </c>
@@ -2703,7 +6067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16">
       <c r="D11" t="s">
         <v>37</v>
       </c>
@@ -2738,7 +6102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16">
       <c r="D12" t="s">
         <v>38</v>
       </c>
@@ -2773,7 +6137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:16">
       <c r="D13" t="s">
         <v>38</v>
       </c>
@@ -2808,7 +6172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16">
       <c r="D14" t="s">
         <v>38</v>
       </c>
@@ -2843,7 +6207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16">
       <c r="D15" t="s">
         <v>39</v>
       </c>
@@ -2885,24 +6249,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:K4"/>
+  <dimension ref="A4:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -2922,13 +6293,681 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
         <v>60</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>61</v>
       </c>
-      <c r="K4" t="s">
-        <v>62</v>
+      <c r="L4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5">
+        <v>17.23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5">
+        <v>377611143</v>
+      </c>
+      <c r="G5">
+        <v>346000207</v>
+      </c>
+      <c r="H5">
+        <v>3500</v>
+      </c>
+      <c r="I5">
+        <v>160</v>
+      </c>
+      <c r="J5">
+        <v>0.17</v>
+      </c>
+      <c r="K5">
+        <v>-2.11</v>
+      </c>
+      <c r="L5">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6">
+        <v>15.23</v>
+      </c>
+      <c r="E6">
+        <v>119</v>
+      </c>
+      <c r="F6">
+        <v>377611136</v>
+      </c>
+      <c r="G6">
+        <v>346000203</v>
+      </c>
+      <c r="H6">
+        <v>2800</v>
+      </c>
+      <c r="I6">
+        <v>130</v>
+      </c>
+      <c r="J6">
+        <v>0.158</v>
+      </c>
+      <c r="K6">
+        <v>-2.1</v>
+      </c>
+      <c r="L6">
+        <v>95</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>119</v>
+      </c>
+      <c r="H7">
+        <v>3900</v>
+      </c>
+      <c r="I7">
+        <v>150</v>
+      </c>
+      <c r="J7">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="K7">
+        <v>-2.09</v>
+      </c>
+      <c r="L7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>122</v>
+      </c>
+      <c r="F8">
+        <v>377611153</v>
+      </c>
+      <c r="G8">
+        <v>346000208</v>
+      </c>
+      <c r="H8">
+        <v>5000</v>
+      </c>
+      <c r="I8">
+        <v>150</v>
+      </c>
+      <c r="J8">
+        <v>0.17</v>
+      </c>
+      <c r="K8">
+        <v>-2.5</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>117</v>
+      </c>
+      <c r="F9">
+        <v>377611155</v>
+      </c>
+      <c r="G9">
+        <v>346000208</v>
+      </c>
+      <c r="H9">
+        <v>5750</v>
+      </c>
+      <c r="I9">
+        <v>150</v>
+      </c>
+      <c r="J9">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="K9">
+        <v>-2.5</v>
+      </c>
+      <c r="L9">
+        <v>45</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13">
+        <v>15.6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13">
+        <v>377611134</v>
+      </c>
+      <c r="H13">
+        <v>2900</v>
+      </c>
+      <c r="I13">
+        <v>150</v>
+      </c>
+      <c r="J13">
+        <v>0.115</v>
+      </c>
+      <c r="K13">
+        <v>-2.29</v>
+      </c>
+      <c r="L13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F14">
+        <v>377611141</v>
+      </c>
+      <c r="H14">
+        <v>3000</v>
+      </c>
+      <c r="I14">
+        <v>150</v>
+      </c>
+      <c r="J14">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="K14">
+        <v>-2.19</v>
+      </c>
+      <c r="L14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="D15">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F15">
+        <v>377611146</v>
+      </c>
+      <c r="H15">
+        <v>3250</v>
+      </c>
+      <c r="I15">
+        <v>150</v>
+      </c>
+      <c r="J15">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="K15">
+        <v>-2.09</v>
+      </c>
+      <c r="L15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="D16">
+        <v>14.6</v>
+      </c>
+      <c r="F16">
+        <v>377611145</v>
+      </c>
+      <c r="H16">
+        <v>2700</v>
+      </c>
+      <c r="I16">
+        <v>150</v>
+      </c>
+      <c r="J16">
+        <v>0.13</v>
+      </c>
+      <c r="K16">
+        <v>-2.13</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="D17">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F17">
+        <v>377611139</v>
+      </c>
+      <c r="H17">
+        <v>3100</v>
+      </c>
+      <c r="I17">
+        <v>150</v>
+      </c>
+      <c r="J17">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K17">
+        <v>-2.8</v>
+      </c>
+      <c r="L17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F18">
+        <v>377611141</v>
+      </c>
+      <c r="H18">
+        <v>6300</v>
+      </c>
+      <c r="I18">
+        <v>170</v>
+      </c>
+      <c r="J18">
+        <v>0.153</v>
+      </c>
+      <c r="K18">
+        <v>-2.66</v>
+      </c>
+      <c r="L18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O25" t="s">
+        <v>86</v>
+      </c>
+      <c r="P25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>89</v>
+      </c>
+      <c r="R25" t="s">
+        <v>57</v>
+      </c>
+      <c r="T25" t="s">
+        <v>60</v>
+      </c>
+      <c r="U25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>222</v>
+      </c>
+      <c r="D26">
+        <v>186</v>
+      </c>
+      <c r="E26">
+        <v>16.46</v>
+      </c>
+      <c r="F26">
+        <v>88.77</v>
+      </c>
+      <c r="G26">
+        <v>377611128</v>
+      </c>
+      <c r="I26">
+        <v>3150</v>
+      </c>
+      <c r="J26">
+        <v>190</v>
+      </c>
+      <c r="K26">
+        <v>576</v>
+      </c>
+      <c r="L26">
+        <v>424</v>
+      </c>
+      <c r="M26">
+        <v>17</v>
+      </c>
+      <c r="N26">
+        <v>50</v>
+      </c>
+      <c r="O26">
+        <f>(K26-L26)/(K26+L26)</f>
+        <v>0.152</v>
+      </c>
+      <c r="P26">
+        <v>256</v>
+      </c>
+      <c r="Q26">
+        <f>250000/(I26-J26)</f>
+        <v>84.459459459459453</v>
+      </c>
+      <c r="R26">
+        <v>85</v>
+      </c>
+      <c r="T26">
+        <v>8.5800000000000008E-3</v>
+      </c>
+      <c r="U26">
+        <v>-0.877</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>18.46</v>
+      </c>
+      <c r="I27">
+        <v>3400</v>
+      </c>
+      <c r="J27">
+        <v>180</v>
+      </c>
+      <c r="K27">
+        <v>576</v>
+      </c>
+      <c r="L27">
+        <v>424</v>
+      </c>
+      <c r="M27">
+        <v>17</v>
+      </c>
+      <c r="N27">
+        <v>50</v>
+      </c>
+      <c r="P27">
+        <v>256</v>
+      </c>
+      <c r="Q27">
+        <f>250000/(I27-J27)</f>
+        <v>77.639751552795033</v>
+      </c>
+      <c r="R27">
+        <v>80</v>
+      </c>
+      <c r="T27" s="3">
+        <v>1.425948E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>19.46</v>
+      </c>
+      <c r="F28">
+        <v>88.77</v>
+      </c>
+      <c r="G28">
+        <v>377611134</v>
+      </c>
+      <c r="I28">
+        <v>3450</v>
+      </c>
+      <c r="J28">
+        <v>180</v>
+      </c>
+      <c r="K28">
+        <v>576</v>
+      </c>
+      <c r="L28">
+        <v>424</v>
+      </c>
+      <c r="M28">
+        <v>17</v>
+      </c>
+      <c r="N28">
+        <v>50</v>
+      </c>
+      <c r="P28">
+        <v>256</v>
+      </c>
+      <c r="Q28">
+        <f>250000/(I28-J28)</f>
+        <v>76.452599388379198</v>
+      </c>
+      <c r="R28">
+        <v>75</v>
+      </c>
+      <c r="T28">
+        <v>1.34E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="G29">
+        <v>377611150</v>
+      </c>
+      <c r="I29">
+        <v>3250</v>
+      </c>
+      <c r="J29">
+        <v>180</v>
+      </c>
+      <c r="K29">
+        <v>576</v>
+      </c>
+      <c r="L29">
+        <v>424</v>
+      </c>
+      <c r="M29">
+        <v>17</v>
+      </c>
+      <c r="N29">
+        <v>50</v>
+      </c>
+      <c r="P29">
+        <v>256</v>
+      </c>
+      <c r="Q29">
+        <f>250000/(I29-J29)</f>
+        <v>81.433224755700323</v>
+      </c>
+      <c r="R29">
+        <v>80</v>
+      </c>
+      <c r="T29">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="U29">
+        <v>-1.41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>222</v>
+      </c>
+      <c r="D30">
+        <v>186</v>
+      </c>
+      <c r="E30">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="F30">
+        <v>88.7</v>
+      </c>
+      <c r="G30">
+        <v>377611136</v>
+      </c>
+      <c r="I30">
+        <v>3250</v>
+      </c>
+      <c r="J30">
+        <v>180</v>
+      </c>
+      <c r="K30">
+        <v>576</v>
+      </c>
+      <c r="L30">
+        <v>424</v>
+      </c>
+      <c r="M30">
+        <v>17</v>
+      </c>
+      <c r="N30">
+        <v>50</v>
+      </c>
+      <c r="P30">
+        <v>256</v>
+      </c>
+      <c r="Q30">
+        <f>250000/(I30-J30)</f>
+        <v>81.433224755700323</v>
+      </c>
+      <c r="R30">
+        <v>80</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="I31">
+        <v>3250</v>
+      </c>
+      <c r="J31">
+        <v>180</v>
+      </c>
+      <c r="K31">
+        <v>576</v>
+      </c>
+      <c r="L31">
+        <v>424</v>
+      </c>
+      <c r="M31">
+        <v>17</v>
+      </c>
+      <c r="N31">
+        <v>50</v>
+      </c>
+      <c r="P31">
+        <v>256</v>
+      </c>
+      <c r="Q31">
+        <f>250000/(I31-J31)</f>
+        <v>81.433224755700323</v>
+      </c>
+      <c r="R31">
+        <v>80</v>
+      </c>
+      <c r="T31">
+        <v>1.34E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2940,11 +6979,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
@@ -2954,18 +6993,18 @@
     <col min="9" max="9" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:9">
       <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>66</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2974,7 +7013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:9">
       <c r="D5">
         <v>3200</v>
       </c>
@@ -2988,13 +7027,13 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:9">
       <c r="D6">
         <v>3200</v>
       </c>
@@ -3011,7 +7050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:9">
       <c r="D7">
         <v>3200</v>
       </c>
@@ -3028,7 +7067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:9">
       <c r="D8">
         <v>3200</v>
       </c>
@@ -3045,7 +7084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:9">
       <c r="D9">
         <v>3200</v>
       </c>
@@ -3062,7 +7101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:9">
       <c r="D10">
         <v>3200</v>
       </c>
@@ -3079,7 +7118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:9">
       <c r="D11">
         <v>3000</v>
       </c>
@@ -3096,7 +7135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:9">
       <c r="D14">
         <v>1500</v>
       </c>
@@ -3110,13 +7149,13 @@
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:9">
       <c r="D15">
         <v>1500</v>
       </c>
@@ -3133,7 +7172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:9">
       <c r="D16">
         <v>1500</v>
       </c>
@@ -3150,7 +7189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:9">
       <c r="D17">
         <v>1500</v>
       </c>
@@ -3167,7 +7206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:9">
       <c r="D18">
         <v>1500</v>
       </c>
@@ -3184,7 +7223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:9">
       <c r="D19">
         <v>1500</v>
       </c>
@@ -3201,7 +7240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:9">
       <c r="D20">
         <v>1500</v>
       </c>
@@ -3218,7 +7257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:9">
       <c r="D24">
         <v>3000</v>
       </c>
@@ -3232,13 +7271,13 @@
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:9">
       <c r="D25">
         <v>3000</v>
       </c>
@@ -3255,7 +7294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:9">
       <c r="D26">
         <v>3000</v>
       </c>
@@ -3272,7 +7311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:9">
       <c r="D27">
         <v>3000</v>
       </c>
@@ -3289,7 +7328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:9">
       <c r="D28">
         <v>2900</v>
       </c>
@@ -3306,7 +7345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:9">
       <c r="D29">
         <v>3000</v>
       </c>
@@ -3323,7 +7362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:9">
       <c r="D30">
         <v>2900</v>
       </c>

--- a/EMM_minim/algoritmus minimalizace/EMM_min_pomocne_data.xlsx
+++ b/EMM_minim/algoritmus minimalizace/EMM_min_pomocne_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20010" windowHeight="8130" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="15360" windowHeight="7545" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dark_res" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="115">
   <si>
     <t>parametry:</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>1.0377876504474617</t>
+  </si>
+  <si>
+    <t>uhly</t>
+  </si>
+  <si>
+    <t>epsilon:</t>
   </si>
 </sst>
 </file>
@@ -862,66 +868,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'minimalizace EMM'!$L$35:$L$44</c:f>
+              <c:f>'minimalizace EMM'!$L$38:$L$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>43.5</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42</c:v>
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.5</c:v>
+                  <c:v>42.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.7</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42.8</c:v>
+                  <c:v>42.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'minimalizace EMM'!$V$35:$V$44</c:f>
+              <c:f>'minimalizace EMM'!$V$38:$V$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3.0883089999999998E-2</c:v>
+                  <c:v>1.406466E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21716887000000001</c:v>
+                  <c:v>1.943139E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.406466E-2</c:v>
+                  <c:v>5.2009400000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.943139E-2</c:v>
+                  <c:v>5.2009500000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1623780000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2009400000000003E-3</c:v>
+                  <c:v>5.0428000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2009500000000002E-3</c:v>
+                  <c:v>6.8193200000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.1623780000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.0428000000000001E-3</c:v>
+                  <c:v>1.379608E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2262,14 +2268,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
+      <xdr:colOff>885824</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4400,8 +4406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P19" workbookViewId="0">
-      <selection activeCell="W47" sqref="W47"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4434,6 +4440,12 @@
       </c>
       <c r="C2">
         <v>140</v>
+      </c>
+      <c r="G2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:23">

--- a/EMM_minim/algoritmus minimalizace/EMM_min_pomocne_data.xlsx
+++ b/EMM_minim/algoritmus minimalizace/EMM_min_pomocne_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive_vut\ÚPT\diplomka\Julia_vypocty_diplomka\EMM_minim\algoritmus minimalizace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\škola-onedrive\OneDrive - Vysoké učení technické v Brně\ÚPT\diplomka\Julia_vypocty_diplomka\EMM_minim\algoritmus minimalizace\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_DF9832555ACC1ABA08EF7B8C364DAB2A8405147D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{828E5C82-30D8-4B97-A1D2-4461FEF52E87}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="15360" windowHeight="7545" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dark_res" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,17 @@
     <sheet name="citlivost" sheetId="5" r:id="rId5"/>
     <sheet name="nejistota histogramu" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -374,9 +385,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -429,7 +440,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,7 +475,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -805,7 +815,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2250,7 +2259,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graf 1"/>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2280,7 +2295,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graf 3"/>
+        <xdr:cNvPr id="4" name="Graf 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2301,7 +2322,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
-    <a:clrScheme name="Kancelář">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2339,7 +2360,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kancelář">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2374,6 +2395,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2409,9 +2447,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kancelář">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2584,7 +2639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2705,7 +2760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:W54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4403,11 +4458,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:N28"/>
+    <sheetView tabSelected="1" topLeftCell="Q31" workbookViewId="0">
+      <selection activeCell="U45" sqref="U45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4602,6 +4657,9 @@
       <c r="U10">
         <v>1</v>
       </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
       <c r="W10">
         <v>0.316</v>
       </c>
@@ -4660,6 +4718,9 @@
       <c r="U11">
         <v>1</v>
       </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
       <c r="W11">
         <v>0.21</v>
       </c>
@@ -4702,14 +4763,14 @@
         <v>50</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O12:O28" si="0">(K13-L13)/(K13+L13)</f>
+        <f t="shared" ref="O13:O28" si="0">(K13-L13)/(K13+L13)</f>
         <v>0.16200000000000001</v>
       </c>
       <c r="P13">
         <v>256</v>
       </c>
       <c r="Q13">
-        <f t="shared" ref="Q12:Q28" si="1" xml:space="preserve"> $C$6/(I13-J13)</f>
+        <f t="shared" ref="Q13:Q28" si="1" xml:space="preserve"> $C$6/(I13-J13)</f>
         <v>102.73972602739725</v>
       </c>
       <c r="R13">
@@ -4722,6 +4783,9 @@
         <v>0</v>
       </c>
       <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
         <v>2</v>
       </c>
       <c r="W13">
@@ -4770,6 +4834,9 @@
       <c r="U14">
         <v>2</v>
       </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
       <c r="W14">
         <v>9.11E-2</v>
       </c>
@@ -4834,6 +4901,9 @@
       <c r="U16">
         <v>3</v>
       </c>
+      <c r="V16">
+        <v>4</v>
+      </c>
       <c r="W16">
         <v>1.8020000000000001E-2</v>
       </c>
@@ -4883,6 +4953,9 @@
       <c r="U17">
         <v>3</v>
       </c>
+      <c r="V17">
+        <v>5</v>
+      </c>
       <c r="W17">
         <v>1.3089999999999999E-2</v>
       </c>
@@ -4937,6 +5010,9 @@
       </c>
       <c r="U19">
         <v>4</v>
+      </c>
+      <c r="V19">
+        <v>6</v>
       </c>
       <c r="W19">
         <v>3.49E-2</v>
@@ -5004,6 +5080,9 @@
       <c r="U21">
         <v>4</v>
       </c>
+      <c r="V21">
+        <v>7</v>
+      </c>
       <c r="W21">
         <v>3.0300000000000001E-2</v>
       </c>
@@ -5047,6 +5126,9 @@
       <c r="U22">
         <v>4</v>
       </c>
+      <c r="V22">
+        <v>8</v>
+      </c>
       <c r="W22">
         <v>1.4E-2</v>
       </c>
@@ -5102,6 +5184,9 @@
       <c r="U24">
         <v>4</v>
       </c>
+      <c r="V24">
+        <v>9</v>
+      </c>
       <c r="W24">
         <v>1.9400000000000001E-2</v>
       </c>
@@ -5145,6 +5230,9 @@
       <c r="U25">
         <v>4</v>
       </c>
+      <c r="V25">
+        <v>10</v>
+      </c>
       <c r="W25" s="4">
         <v>1.1610000000000001E-2</v>
       </c>
@@ -5206,6 +5294,9 @@
       <c r="U26">
         <v>4</v>
       </c>
+      <c r="V26">
+        <v>11</v>
+      </c>
       <c r="W26">
         <v>1.6400000000000001E-2</v>
       </c>
@@ -5249,6 +5340,9 @@
       <c r="U27">
         <v>4</v>
       </c>
+      <c r="V27">
+        <v>12</v>
+      </c>
       <c r="W27">
         <v>1.1599999999999999E-2</v>
       </c>
@@ -5310,6 +5404,9 @@
       <c r="T28">
         <v>0</v>
       </c>
+      <c r="V28">
+        <v>13</v>
+      </c>
       <c r="W28">
         <v>1.43E-2</v>
       </c>
@@ -5445,6 +5542,9 @@
       <c r="T32">
         <v>1</v>
       </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
       <c r="V32" s="3">
         <v>0.61909848000000001</v>
       </c>
@@ -5493,6 +5593,9 @@
       <c r="T33">
         <v>1</v>
       </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
       <c r="V33" s="3">
         <v>0.23714600999999999</v>
       </c>
@@ -5532,7 +5635,7 @@
         <v>256</v>
       </c>
       <c r="P35">
-        <f t="shared" ref="P34:P36" si="2">$C$6/(H35-I35)</f>
+        <f t="shared" ref="P35:P36" si="2">$C$6/(H35-I35)</f>
         <v>86.705202312138724</v>
       </c>
       <c r="Q35">
@@ -5545,6 +5648,9 @@
         <v>0</v>
       </c>
       <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
         <v>2</v>
       </c>
       <c r="V35" s="3">
@@ -5595,6 +5701,9 @@
       <c r="T36">
         <v>2</v>
       </c>
+      <c r="U36">
+        <v>3</v>
+      </c>
       <c r="V36" s="3">
         <v>0.21716887000000001</v>
       </c>
@@ -5648,6 +5757,9 @@
       <c r="T38">
         <v>3</v>
       </c>
+      <c r="U38">
+        <v>4</v>
+      </c>
       <c r="V38" s="3">
         <v>1.406466E-2</v>
       </c>
@@ -5686,6 +5798,9 @@
       <c r="T39">
         <v>3</v>
       </c>
+      <c r="U39">
+        <v>5</v>
+      </c>
       <c r="V39" s="3">
         <v>1.943139E-2</v>
       </c>
@@ -5739,6 +5854,9 @@
       <c r="S41">
         <v>2</v>
       </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
       <c r="V41" s="3">
         <v>5.2009400000000003E-3</v>
       </c>
@@ -5771,6 +5889,9 @@
       <c r="S42">
         <v>3</v>
       </c>
+      <c r="U42">
+        <v>7</v>
+      </c>
       <c r="V42" s="3">
         <v>5.2009500000000002E-3</v>
       </c>
@@ -5806,6 +5927,9 @@
       <c r="S43">
         <v>4</v>
       </c>
+      <c r="U43">
+        <v>8</v>
+      </c>
       <c r="V43" s="3">
         <v>5.1623780000000001E-2</v>
       </c>
@@ -5856,6 +5980,9 @@
       <c r="S44">
         <v>5</v>
       </c>
+      <c r="U44">
+        <v>9</v>
+      </c>
       <c r="V44" s="3">
         <v>5.0428000000000001E-3</v>
       </c>
@@ -5864,6 +5991,12 @@
       </c>
     </row>
     <row r="45" spans="3:24">
+      <c r="H45">
+        <v>3550</v>
+      </c>
+      <c r="I45">
+        <v>130</v>
+      </c>
       <c r="L45">
         <v>42.9</v>
       </c>
@@ -5878,6 +6011,9 @@
       </c>
       <c r="S45">
         <v>6</v>
+      </c>
+      <c r="U45">
+        <v>10</v>
       </c>
       <c r="V45" s="3">
         <v>6.8193200000000002E-3</v>
@@ -5913,6 +6049,9 @@
       </c>
       <c r="S46">
         <v>7</v>
+      </c>
+      <c r="U46">
+        <v>11</v>
       </c>
       <c r="V46" s="3">
         <v>1.379608E-2</v>
@@ -5929,7 +6068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C3:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6260,7 +6399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A4:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6750,7 +6889,7 @@
         <v>256</v>
       </c>
       <c r="Q26">
-        <f>250000/(I26-J26)</f>
+        <f t="shared" ref="Q26:Q31" si="0">250000/(I26-J26)</f>
         <v>84.459459459459453</v>
       </c>
       <c r="R26">
@@ -6792,7 +6931,7 @@
         <v>256</v>
       </c>
       <c r="Q27">
-        <f>250000/(I27-J27)</f>
+        <f t="shared" si="0"/>
         <v>77.639751552795033</v>
       </c>
       <c r="R27">
@@ -6837,7 +6976,7 @@
         <v>256</v>
       </c>
       <c r="Q28">
-        <f>250000/(I28-J28)</f>
+        <f t="shared" si="0"/>
         <v>76.452599388379198</v>
       </c>
       <c r="R28">
@@ -6879,7 +7018,7 @@
         <v>256</v>
       </c>
       <c r="Q29">
-        <f>250000/(I29-J29)</f>
+        <f t="shared" si="0"/>
         <v>81.433224755700323</v>
       </c>
       <c r="R29">
@@ -6933,7 +7072,7 @@
         <v>256</v>
       </c>
       <c r="Q30">
-        <f>250000/(I30-J30)</f>
+        <f t="shared" si="0"/>
         <v>81.433224755700323</v>
       </c>
       <c r="R30">
@@ -6972,7 +7111,7 @@
         <v>256</v>
       </c>
       <c r="Q31">
-        <f>250000/(I31-J31)</f>
+        <f t="shared" si="0"/>
         <v>81.433224755700323</v>
       </c>
       <c r="R31">
@@ -6988,7 +7127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D4:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/EMM_minim/algoritmus minimalizace/EMM_min_pomocne_data.xlsx
+++ b/EMM_minim/algoritmus minimalizace/EMM_min_pomocne_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19290" windowHeight="7740" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dark_res" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="201">
   <si>
     <t>parametry:</t>
   </si>
@@ -475,6 +475,168 @@
   </si>
   <si>
     <t>-5 dbm</t>
+  </si>
+  <si>
+    <t>zkusim tyto data doplnit</t>
+  </si>
+  <si>
+    <t>09_05_2020_EMM_z_multiple_Vrf_945_doplneni</t>
+  </si>
+  <si>
+    <t>-4,87 dmb</t>
+  </si>
+  <si>
+    <t>doplneni dat</t>
+  </si>
+  <si>
+    <t>09_05_2020_EMM_z_multiple_Vrf_1221_doplneni</t>
+  </si>
+  <si>
+    <t>mereni axialniho EMM pro ruzne Vpp RF</t>
+  </si>
+  <si>
+    <t>10_05_2020_EMM_z_multiple_Vrf_1270_p1</t>
+  </si>
+  <si>
+    <t>10_05_2020_EMM_z_multiple_Vrf_1270_p2</t>
+  </si>
+  <si>
+    <t>cca</t>
+  </si>
+  <si>
+    <t>-2,65 dbm</t>
+  </si>
+  <si>
+    <t>10_05_2020_EMM_z_multiple_Vrf_596_p1</t>
+  </si>
+  <si>
+    <t>10_05_2020_EMM_z_multiple_Vrf_596_p2</t>
+  </si>
+  <si>
+    <t>Minimalizace EMM</t>
+  </si>
+  <si>
+    <t>I_axi odpovidajici 240 na DDS</t>
+  </si>
+  <si>
+    <t>17 uw</t>
+  </si>
+  <si>
+    <t>23_05_20_EMM_min_z_step1</t>
+  </si>
+  <si>
+    <t>23_05_20_EMM_min_z_step2</t>
+  </si>
+  <si>
+    <t>Vpp trap estim</t>
+  </si>
+  <si>
+    <t>23_05_20_EMM_min_z_step3</t>
+  </si>
+  <si>
+    <t>23_05_20_EMM_min_z_multiple</t>
+  </si>
+  <si>
+    <t>23_05_20_EMM_min_z_final</t>
+  </si>
+  <si>
+    <t>204 (2700)</t>
+  </si>
+  <si>
+    <t>23_05_20_EMM_min_xz_step1</t>
+  </si>
+  <si>
+    <t>23_05_20_EMM_min_xz_step2</t>
+  </si>
+  <si>
+    <t>23_05_20_EMM_min_xz_step3</t>
+  </si>
+  <si>
+    <t>23_05_20_EMM_min_xz_multiple</t>
+  </si>
+  <si>
+    <t>I_xy: na DDS 385 odpovida</t>
+  </si>
+  <si>
+    <t>22,5 uW</t>
+  </si>
+  <si>
+    <t>23_05_20_EMM_min_xy_step1</t>
+  </si>
+  <si>
+    <t>23_05_20_EMM_min_xy_step2</t>
+  </si>
+  <si>
+    <t>23_05_20_EMM_min_xy_step3</t>
+  </si>
+  <si>
+    <t>23_05_20_EMM_min_xy_multiple</t>
+  </si>
+  <si>
+    <t>ověření minima nalezeného včera</t>
+  </si>
+  <si>
+    <t>to mi ukáže, jak moc se minimum mění po chycení nového iontu a za cca 14 hodin</t>
+  </si>
+  <si>
+    <t>změna vůči včerejšku je pouze chycený jiný iont</t>
+  </si>
+  <si>
+    <t>24_05_20_EMM_min_overeni</t>
+  </si>
+  <si>
+    <t>203 (2700)</t>
+  </si>
+  <si>
+    <t>minimalizace EMM</t>
+  </si>
+  <si>
+    <t>24_05_20_EMM_min_z_step1</t>
+  </si>
+  <si>
+    <t>24_05_20_EMM_min_z_step2</t>
+  </si>
+  <si>
+    <t>24_05_20_EMM_min_z_step3</t>
+  </si>
+  <si>
+    <t>24_05_20_EMM_min_z_multiple</t>
+  </si>
+  <si>
+    <t>202 (2650)</t>
+  </si>
+  <si>
+    <t>24_05_20_EMM_min_xz_step1</t>
+  </si>
+  <si>
+    <t>24_05_20_EMM_min_xz_step2</t>
+  </si>
+  <si>
+    <t>24_05_20_EMM_min_xz_step3</t>
+  </si>
+  <si>
+    <t>24_05_20_EMM_min_xz_multiple</t>
+  </si>
+  <si>
+    <t>24_05_20_EMM_min_xy_step1</t>
+  </si>
+  <si>
+    <t>24_05_20_EMM_min_xy_step2</t>
+  </si>
+  <si>
+    <t>24_05_20_EMM_min_xy_multiple</t>
+  </si>
+  <si>
+    <t>od 9.5. až do 24.5. plati pro směr Sxy svazku:</t>
+  </si>
+  <si>
+    <t>S_xyvec</t>
+  </si>
+  <si>
+    <t>(85; -230; -20)</t>
+  </si>
+  <si>
+    <t>unc+-(5;5;2)</t>
   </si>
 </sst>
 </file>
@@ -516,7 +678,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -607,19 +769,28 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -642,7 +813,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -675,6 +857,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4626,10 +4809,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X132"/>
+  <dimension ref="A2:X329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B331" sqref="B331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4647,10 +4830,10 @@
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
     <col min="13" max="13" width="15.140625" customWidth="1"/>
     <col min="14" max="15" width="24" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" customWidth="1"/>
     <col min="18" max="18" width="31" customWidth="1"/>
-    <col min="19" max="19" width="30.42578125" customWidth="1"/>
+    <col min="19" max="19" width="32.7109375" customWidth="1"/>
     <col min="20" max="20" width="12.85546875" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
     <col min="23" max="23" width="24" customWidth="1"/>
@@ -7256,7 +7439,7 @@
         <v>256</v>
       </c>
       <c r="P91">
-        <f>$C$6/(H91-I91)</f>
+        <f t="shared" ref="P91:P96" si="5">$C$6/(H91-I91)</f>
         <v>142.85714285714286</v>
       </c>
       <c r="Q91">
@@ -7298,7 +7481,7 @@
         <v>256</v>
       </c>
       <c r="P92">
-        <f>$C$6/(H92-I92)</f>
+        <f t="shared" si="5"/>
         <v>157.89473684210526</v>
       </c>
       <c r="Q92">
@@ -7331,7 +7514,7 @@
         <v>256</v>
       </c>
       <c r="P93">
-        <f>$C$6/(H93-I93)</f>
+        <f t="shared" si="5"/>
         <v>157.89473684210526</v>
       </c>
       <c r="Q93">
@@ -7367,7 +7550,7 @@
         <v>256</v>
       </c>
       <c r="P94">
-        <f>$C$6/(H94-I94)</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="Q94">
@@ -7402,7 +7585,7 @@
         <v>256</v>
       </c>
       <c r="P95" s="1">
-        <f>$C$6/(H95-I95)</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="Q95" s="1">
@@ -7447,7 +7630,7 @@
         <v>256</v>
       </c>
       <c r="P96">
-        <f>$C$6/(H96-I96)</f>
+        <f t="shared" si="5"/>
         <v>142.85714285714286</v>
       </c>
       <c r="Q96">
@@ -8007,6 +8190,9 @@
         <v>143</v>
       </c>
       <c r="T116" s="9">
+        <v>0</v>
+      </c>
+      <c r="U116" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8037,7 +8223,7 @@
         <v>39.9</v>
       </c>
       <c r="O117" s="11">
-        <f t="shared" ref="O117:O123" si="5">(K117-L117)/(K117+L117)</f>
+        <f t="shared" ref="O117:O123" si="6">(K117-L117)/(K117+L117)</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="P117" s="11">
@@ -8049,6 +8235,9 @@
       </c>
       <c r="S117" s="11"/>
       <c r="T117" s="12">
+        <v>1</v>
+      </c>
+      <c r="U117" s="16">
         <v>1</v>
       </c>
     </row>
@@ -8079,7 +8268,7 @@
         <v>39.9</v>
       </c>
       <c r="O118" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="P118" s="11">
@@ -8091,6 +8280,9 @@
       </c>
       <c r="S118" s="11"/>
       <c r="T118" s="12">
+        <v>2</v>
+      </c>
+      <c r="U118" s="16">
         <v>2</v>
       </c>
     </row>
@@ -8121,7 +8313,7 @@
         <v>39.9</v>
       </c>
       <c r="O119" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="P119" s="11">
@@ -8133,6 +8325,9 @@
       </c>
       <c r="S119" s="11"/>
       <c r="T119" s="12">
+        <v>3</v>
+      </c>
+      <c r="U119" s="16">
         <v>3</v>
       </c>
     </row>
@@ -8163,7 +8358,7 @@
         <v>39.9</v>
       </c>
       <c r="O120" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.152</v>
       </c>
       <c r="P120" s="11">
@@ -8175,6 +8370,9 @@
       </c>
       <c r="S120" s="11"/>
       <c r="T120" s="12">
+        <v>4</v>
+      </c>
+      <c r="U120" s="16">
         <v>4</v>
       </c>
     </row>
@@ -8205,7 +8403,7 @@
         <v>39.9</v>
       </c>
       <c r="O121" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.154</v>
       </c>
       <c r="P121" s="11">
@@ -8217,6 +8415,9 @@
       </c>
       <c r="S121" s="11"/>
       <c r="T121" s="12">
+        <v>5</v>
+      </c>
+      <c r="U121" s="16">
         <v>5</v>
       </c>
     </row>
@@ -8247,7 +8448,7 @@
         <v>39.9</v>
       </c>
       <c r="O122" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.156</v>
       </c>
       <c r="P122" s="11">
@@ -8259,6 +8460,9 @@
       </c>
       <c r="S122" s="11"/>
       <c r="T122" s="12">
+        <v>6</v>
+      </c>
+      <c r="U122" s="16">
         <v>6</v>
       </c>
     </row>
@@ -8289,7 +8493,7 @@
         <v>39.9</v>
       </c>
       <c r="O123" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="P123" s="6">
@@ -8303,130 +8507,173 @@
       <c r="T123" s="14">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" ht="15.75" thickBot="1">
-      <c r="B126" t="s">
-        <v>142</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="U123" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21">
+      <c r="B124" s="7"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="8"/>
+      <c r="O124" s="8"/>
+      <c r="P124" s="8"/>
+      <c r="Q124" s="8"/>
+      <c r="R124" s="8"/>
+      <c r="S124" s="8"/>
+      <c r="T124" s="9"/>
+    </row>
+    <row r="125" spans="1:21">
+      <c r="A125" s="18">
+        <v>43961</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="11"/>
+      <c r="O125" s="11"/>
+      <c r="P125" s="11"/>
+      <c r="Q125" s="11"/>
+      <c r="R125" s="11"/>
+      <c r="S125" s="11"/>
+      <c r="T125" s="12"/>
+    </row>
+    <row r="126" spans="1:21">
+      <c r="B126" s="10">
+        <v>1221</v>
+      </c>
+      <c r="C126" s="11">
+        <v>239</v>
+      </c>
+      <c r="D126" s="11">
+        <v>187</v>
+      </c>
+      <c r="E126" s="11">
+        <v>18</v>
+      </c>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11">
+        <v>3350</v>
+      </c>
+      <c r="J126" s="11">
+        <v>200</v>
+      </c>
+      <c r="K126" s="11">
+        <v>590</v>
+      </c>
+      <c r="L126" s="11">
+        <v>410</v>
+      </c>
+      <c r="M126" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N126" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O126" s="11">
+        <f t="shared" ref="O126:O129" si="7">(K126-L126)/(K126+L126)</f>
+        <v>0.18</v>
+      </c>
+      <c r="P126" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q126" s="11"/>
+      <c r="R126" s="11">
+        <v>80</v>
+      </c>
+      <c r="S126" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T126" s="12">
+        <v>0</v>
+      </c>
+      <c r="U126" s="16">
         <v>8</v>
       </c>
-      <c r="D126" t="s">
+    </row>
+    <row r="127" spans="1:21">
+      <c r="B127" s="10">
+        <v>1223</v>
+      </c>
+      <c r="C127" s="11">
+        <v>239</v>
+      </c>
+      <c r="D127" s="11">
+        <v>187</v>
+      </c>
+      <c r="E127" s="11">
+        <v>18</v>
+      </c>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11">
+        <v>37611159</v>
+      </c>
+      <c r="H127" s="11">
+        <v>346000225</v>
+      </c>
+      <c r="I127" s="11">
+        <v>3400</v>
+      </c>
+      <c r="J127" s="11">
+        <v>220</v>
+      </c>
+      <c r="K127" s="11">
+        <v>585</v>
+      </c>
+      <c r="L127" s="11">
+        <v>415</v>
+      </c>
+      <c r="M127" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N127" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O127" s="11">
+        <f t="shared" si="7"/>
+        <v>0.17</v>
+      </c>
+      <c r="P127" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q127" s="11"/>
+      <c r="R127" s="11">
+        <v>80</v>
+      </c>
+      <c r="S127" s="11"/>
+      <c r="T127" s="12">
+        <v>1</v>
+      </c>
+      <c r="U127" s="16">
         <v>9</v>
       </c>
-      <c r="E126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>22</v>
-      </c>
-      <c r="H126" t="s">
-        <v>23</v>
-      </c>
-      <c r="I126" t="s">
-        <v>10</v>
-      </c>
-      <c r="J126" t="s">
-        <v>16</v>
-      </c>
-      <c r="K126" t="s">
-        <v>11</v>
-      </c>
-      <c r="L126" t="s">
-        <v>12</v>
-      </c>
-      <c r="M126" t="s">
-        <v>13</v>
-      </c>
-      <c r="N126" t="s">
-        <v>14</v>
-      </c>
-      <c r="O126" t="s">
-        <v>86</v>
-      </c>
-      <c r="P126" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>89</v>
-      </c>
-      <c r="R126" t="s">
-        <v>57</v>
-      </c>
-      <c r="S126" t="s">
-        <v>15</v>
-      </c>
-      <c r="T126" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A127" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B127" s="7">
-        <v>945</v>
-      </c>
-      <c r="C127" s="8">
-        <v>239</v>
-      </c>
-      <c r="D127" s="8">
-        <v>187</v>
-      </c>
-      <c r="E127" s="8">
-        <v>18</v>
-      </c>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8">
-        <v>377611168</v>
-      </c>
-      <c r="H127" s="8">
-        <v>346000222</v>
-      </c>
-      <c r="I127" s="8">
-        <v>3200</v>
-      </c>
-      <c r="J127" s="8">
-        <v>200</v>
-      </c>
-      <c r="K127" s="8">
-        <v>600</v>
-      </c>
-      <c r="L127" s="8">
-        <v>400</v>
-      </c>
-      <c r="M127" s="8">
-        <v>42.2</v>
-      </c>
-      <c r="N127" s="8">
-        <v>39.9</v>
-      </c>
-      <c r="O127" s="8">
-        <f>(K127-L127)/(K127+L127)</f>
-        <v>0.2</v>
-      </c>
-      <c r="P127" s="8">
-        <v>256</v>
-      </c>
-      <c r="Q127" s="8">
-        <f xml:space="preserve"> $C$6/(I127-J127)</f>
-        <v>100</v>
-      </c>
-      <c r="R127" s="8">
-        <v>80</v>
-      </c>
-      <c r="S127" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="T127" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" ht="15.75" thickBot="1">
-      <c r="B128" s="10"/>
+    </row>
+    <row r="128" spans="1:21">
+      <c r="B128" s="10">
+        <v>1225</v>
+      </c>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
@@ -8434,16 +8681,16 @@
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
       <c r="I128" s="11">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J128" s="11">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="K128" s="11">
-        <v>577.5</v>
+        <v>580</v>
       </c>
       <c r="L128" s="11">
-        <v>422.5</v>
+        <v>420</v>
       </c>
       <c r="M128" s="11">
         <v>42.2</v>
@@ -8451,184 +8698,5372 @@
       <c r="N128" s="16">
         <v>39.9</v>
       </c>
-      <c r="O128" s="8">
-        <f t="shared" ref="O128:O132" si="6">(K128-L128)/(K128+L128)</f>
-        <v>0.155</v>
-      </c>
-      <c r="P128" s="11"/>
+      <c r="O128" s="11">
+        <f t="shared" si="7"/>
+        <v>0.16</v>
+      </c>
+      <c r="P128" s="16">
+        <v>256</v>
+      </c>
       <c r="Q128" s="11"/>
       <c r="R128" s="11">
         <v>80</v>
       </c>
       <c r="S128" s="11"/>
       <c r="T128" s="12">
+        <v>2</v>
+      </c>
+      <c r="U128" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" ht="15.75" thickBot="1">
+      <c r="B129" s="13">
+        <v>1223</v>
+      </c>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6">
+        <v>3600</v>
+      </c>
+      <c r="J129" s="6">
+        <v>260</v>
+      </c>
+      <c r="K129" s="6">
+        <v>560</v>
+      </c>
+      <c r="L129" s="6">
+        <v>440</v>
+      </c>
+      <c r="M129" s="6">
+        <v>42.2</v>
+      </c>
+      <c r="N129" s="17">
+        <v>39.9</v>
+      </c>
+      <c r="O129" s="6">
+        <f t="shared" si="7"/>
+        <v>0.12</v>
+      </c>
+      <c r="P129" s="17">
+        <v>256</v>
+      </c>
+      <c r="Q129" s="6"/>
+      <c r="R129" s="6">
+        <v>80</v>
+      </c>
+      <c r="S129" s="6"/>
+      <c r="T129" s="14">
+        <v>3</v>
+      </c>
+      <c r="U129" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" ht="15.75" thickBot="1">
+      <c r="B133" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" t="s">
+        <v>21</v>
+      </c>
+      <c r="G133" t="s">
+        <v>22</v>
+      </c>
+      <c r="H133" t="s">
+        <v>23</v>
+      </c>
+      <c r="I133" t="s">
+        <v>10</v>
+      </c>
+      <c r="J133" t="s">
+        <v>16</v>
+      </c>
+      <c r="K133" t="s">
+        <v>11</v>
+      </c>
+      <c r="L133" t="s">
+        <v>12</v>
+      </c>
+      <c r="M133" t="s">
+        <v>13</v>
+      </c>
+      <c r="N133" t="s">
+        <v>14</v>
+      </c>
+      <c r="O133" t="s">
+        <v>86</v>
+      </c>
+      <c r="P133" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>89</v>
+      </c>
+      <c r="R133" t="s">
+        <v>57</v>
+      </c>
+      <c r="S133" t="s">
+        <v>15</v>
+      </c>
+      <c r="T133" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21">
+      <c r="A134" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B134" s="7">
+        <v>945</v>
+      </c>
+      <c r="C134" s="8">
+        <v>239</v>
+      </c>
+      <c r="D134" s="8">
+        <v>187</v>
+      </c>
+      <c r="E134" s="8">
+        <v>18</v>
+      </c>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8">
+        <v>377611168</v>
+      </c>
+      <c r="H134" s="8">
+        <v>346000222</v>
+      </c>
+      <c r="I134" s="8">
+        <v>3200</v>
+      </c>
+      <c r="J134" s="8">
+        <v>200</v>
+      </c>
+      <c r="K134" s="8">
+        <v>600</v>
+      </c>
+      <c r="L134" s="8">
+        <v>400</v>
+      </c>
+      <c r="M134" s="8">
+        <v>42.2</v>
+      </c>
+      <c r="N134" s="8">
+        <v>39.9</v>
+      </c>
+      <c r="O134" s="8">
+        <f>(K134-L134)/(K134+L134)</f>
+        <v>0.2</v>
+      </c>
+      <c r="P134" s="8">
+        <v>256</v>
+      </c>
+      <c r="Q134" s="8">
+        <f xml:space="preserve"> $C$6/(I134-J134)</f>
+        <v>100</v>
+      </c>
+      <c r="R134" s="8">
+        <v>80</v>
+      </c>
+      <c r="S134" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="T134" s="9">
+        <v>0</v>
+      </c>
+      <c r="U134" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21">
+      <c r="B135" s="10"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11">
+        <v>3400</v>
+      </c>
+      <c r="J135" s="11">
+        <v>200</v>
+      </c>
+      <c r="K135" s="11">
+        <v>577.5</v>
+      </c>
+      <c r="L135" s="11">
+        <v>422.5</v>
+      </c>
+      <c r="M135" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N135" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O135" s="11">
+        <f t="shared" ref="O135:O143" si="8">(K135-L135)/(K135+L135)</f>
+        <v>0.155</v>
+      </c>
+      <c r="P135" s="11"/>
+      <c r="Q135" s="11"/>
+      <c r="R135" s="11">
+        <v>80</v>
+      </c>
+      <c r="S135" s="11"/>
+      <c r="T135" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B129" s="10">
+      <c r="U135">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21">
+      <c r="B136" s="10">
         <v>943</v>
       </c>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="11">
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11">
         <v>3400</v>
       </c>
-      <c r="J129" s="11">
+      <c r="J136" s="11">
         <v>220</v>
       </c>
-      <c r="K129" s="11">
+      <c r="K136" s="11">
         <v>575</v>
       </c>
-      <c r="L129" s="11">
+      <c r="L136" s="11">
         <v>425</v>
       </c>
-      <c r="M129" s="11">
+      <c r="M136" s="11">
         <v>42.2</v>
       </c>
-      <c r="N129" s="16">
+      <c r="N136" s="16">
         <v>39.9</v>
       </c>
-      <c r="O129" s="8">
-        <f t="shared" si="6"/>
+      <c r="O136" s="11">
+        <f t="shared" si="8"/>
         <v>0.15</v>
       </c>
-      <c r="P129" s="11"/>
-      <c r="Q129" s="11"/>
-      <c r="R129" s="11">
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="11">
         <v>80</v>
       </c>
-      <c r="S129" s="11"/>
-      <c r="T129" s="12">
+      <c r="S136" s="11"/>
+      <c r="T136" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B130" s="10"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
-      <c r="I130" s="11">
+      <c r="U136">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21">
+      <c r="B137" s="10"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11">
         <v>3400</v>
       </c>
-      <c r="J130" s="11">
+      <c r="J137" s="11">
         <v>220</v>
       </c>
-      <c r="K130" s="11">
+      <c r="K137" s="11">
         <v>572.5</v>
       </c>
-      <c r="L130" s="11">
+      <c r="L137" s="11">
         <v>427.5</v>
       </c>
-      <c r="M130" s="11">
+      <c r="M137" s="11">
         <v>42.2</v>
       </c>
-      <c r="N130" s="16">
+      <c r="N137" s="16">
         <v>39.9</v>
       </c>
-      <c r="O130" s="8">
-        <f t="shared" si="6"/>
+      <c r="O137" s="11">
+        <f t="shared" si="8"/>
         <v>0.14499999999999999</v>
       </c>
-      <c r="P130" s="11"/>
-      <c r="Q130" s="11"/>
-      <c r="R130" s="11">
+      <c r="P137" s="11"/>
+      <c r="Q137" s="11"/>
+      <c r="R137" s="11">
         <v>80</v>
       </c>
-      <c r="S130" s="11"/>
-      <c r="T130" s="12">
+      <c r="S137" s="11"/>
+      <c r="T137" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="131" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B131" s="10">
+      <c r="U137">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21">
+      <c r="B138" s="10">
         <v>942</v>
       </c>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="11">
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11">
         <v>3500</v>
       </c>
-      <c r="J131" s="11">
+      <c r="J138" s="11">
         <v>220</v>
       </c>
-      <c r="K131" s="11">
+      <c r="K138" s="11">
         <v>570</v>
       </c>
-      <c r="L131" s="11">
+      <c r="L138" s="11">
         <v>430</v>
       </c>
-      <c r="M131" s="11">
+      <c r="M138" s="11">
         <v>42.2</v>
       </c>
-      <c r="N131" s="16">
+      <c r="N138" s="16">
         <v>39.9</v>
       </c>
-      <c r="O131" s="8">
-        <f t="shared" si="6"/>
+      <c r="O138" s="11">
+        <f t="shared" si="8"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="P131" s="11"/>
-      <c r="Q131" s="11"/>
-      <c r="R131" s="11">
+      <c r="P138" s="11"/>
+      <c r="Q138" s="11"/>
+      <c r="R138" s="11">
         <v>80</v>
       </c>
-      <c r="S131" s="11"/>
-      <c r="T131" s="12">
+      <c r="S138" s="11"/>
+      <c r="T138" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B132" s="13">
+      <c r="U138">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" ht="15.75" thickBot="1">
+      <c r="B139" s="13">
         <v>941</v>
       </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6">
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6">
         <v>3500</v>
       </c>
-      <c r="J132" s="6">
+      <c r="J139" s="6">
         <v>260</v>
       </c>
-      <c r="K132" s="6">
+      <c r="K139" s="6">
         <v>550</v>
       </c>
-      <c r="L132" s="6">
+      <c r="L139" s="6">
         <v>450</v>
       </c>
-      <c r="M132" s="6">
+      <c r="M139" s="6">
         <v>42.2</v>
       </c>
-      <c r="N132" s="17">
+      <c r="N139" s="17">
         <v>39.9</v>
       </c>
-      <c r="O132" s="18">
-        <f t="shared" si="6"/>
+      <c r="O139" s="6">
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="P132" s="6"/>
-      <c r="Q132" s="6"/>
-      <c r="R132" s="6">
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="6">
         <v>80</v>
       </c>
-      <c r="S132" s="6"/>
-      <c r="T132" s="14">
+      <c r="S139" s="6"/>
+      <c r="T139" s="14">
         <v>5</v>
+      </c>
+      <c r="U139">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21">
+      <c r="B140" s="7"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="8"/>
+      <c r="M140" s="8"/>
+      <c r="N140" s="8"/>
+      <c r="O140" s="8"/>
+      <c r="P140" s="8"/>
+      <c r="Q140" s="8"/>
+      <c r="R140" s="8"/>
+      <c r="S140" s="8"/>
+      <c r="T140" s="9"/>
+    </row>
+    <row r="141" spans="1:21">
+      <c r="A141" s="19">
+        <v>43961</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="11"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+      <c r="O141" s="11"/>
+      <c r="P141" s="11"/>
+      <c r="Q141" s="11"/>
+      <c r="R141" s="11"/>
+      <c r="S141" s="11"/>
+      <c r="T141" s="12"/>
+    </row>
+    <row r="142" spans="1:21">
+      <c r="B142" s="10"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="16"/>
+      <c r="O142" s="11"/>
+      <c r="P142" s="11"/>
+      <c r="Q142" s="11"/>
+      <c r="R142" s="11"/>
+      <c r="S142" s="11"/>
+      <c r="T142" s="12"/>
+    </row>
+    <row r="143" spans="1:21">
+      <c r="A143" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" s="10">
+        <v>945</v>
+      </c>
+      <c r="C143" s="11">
+        <v>239</v>
+      </c>
+      <c r="D143" s="11">
+        <v>187</v>
+      </c>
+      <c r="E143" s="11">
+        <v>18</v>
+      </c>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11">
+        <v>377611162</v>
+      </c>
+      <c r="H143" s="11">
+        <v>346000222</v>
+      </c>
+      <c r="I143" s="11">
+        <v>3750</v>
+      </c>
+      <c r="J143" s="11">
+        <v>260</v>
+      </c>
+      <c r="K143" s="11">
+        <v>560</v>
+      </c>
+      <c r="L143" s="11">
+        <v>440</v>
+      </c>
+      <c r="M143" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N143" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O143" s="11">
+        <f t="shared" si="8"/>
+        <v>0.12</v>
+      </c>
+      <c r="P143" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q143" s="11"/>
+      <c r="R143" s="11">
+        <v>80</v>
+      </c>
+      <c r="S143" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="T143" s="12">
+        <v>0</v>
+      </c>
+      <c r="U143" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21">
+      <c r="B144" s="10">
+        <v>945</v>
+      </c>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11">
+        <v>3500</v>
+      </c>
+      <c r="J144" s="11">
+        <v>230</v>
+      </c>
+      <c r="K144" s="11">
+        <v>580</v>
+      </c>
+      <c r="L144" s="11">
+        <v>420</v>
+      </c>
+      <c r="M144" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N144" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O144" s="11">
+        <f t="shared" ref="O144:O145" si="9">(K144-L144)/(K144+L144)</f>
+        <v>0.16</v>
+      </c>
+      <c r="P144" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q144" s="11"/>
+      <c r="R144" s="11">
+        <v>80</v>
+      </c>
+      <c r="S144" s="11"/>
+      <c r="T144" s="12">
+        <v>1</v>
+      </c>
+      <c r="U144" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23">
+      <c r="B145" s="10">
+        <v>945</v>
+      </c>
+      <c r="C145" s="11">
+        <v>239</v>
+      </c>
+      <c r="D145" s="11">
+        <v>187</v>
+      </c>
+      <c r="E145" s="11">
+        <v>18</v>
+      </c>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11">
+        <v>3450</v>
+      </c>
+      <c r="J145" s="11">
+        <v>220</v>
+      </c>
+      <c r="K145" s="11">
+        <v>585</v>
+      </c>
+      <c r="L145" s="11">
+        <v>415</v>
+      </c>
+      <c r="M145" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N145" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O145" s="11">
+        <f t="shared" si="9"/>
+        <v>0.17</v>
+      </c>
+      <c r="P145" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q145" s="11"/>
+      <c r="R145" s="11">
+        <v>80</v>
+      </c>
+      <c r="S145" s="11"/>
+      <c r="T145" s="12">
+        <v>2</v>
+      </c>
+      <c r="U145" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" ht="15.75" thickBot="1">
+      <c r="B146" s="13"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6">
+        <v>3550</v>
+      </c>
+      <c r="J146" s="6">
+        <v>200</v>
+      </c>
+      <c r="K146" s="6">
+        <v>590</v>
+      </c>
+      <c r="L146" s="6">
+        <v>410</v>
+      </c>
+      <c r="M146" s="6">
+        <v>42.2</v>
+      </c>
+      <c r="N146" s="17">
+        <v>39.9</v>
+      </c>
+      <c r="O146" s="6">
+        <f t="shared" ref="O146" si="10">(K146-L146)/(K146+L146)</f>
+        <v>0.18</v>
+      </c>
+      <c r="P146" s="17">
+        <v>256</v>
+      </c>
+      <c r="Q146" s="6"/>
+      <c r="R146" s="6">
+        <v>80</v>
+      </c>
+      <c r="S146" s="6"/>
+      <c r="T146" s="14">
+        <v>3</v>
+      </c>
+      <c r="U146" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A150" s="20">
+        <v>43961</v>
+      </c>
+      <c r="B150" s="21"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="21"/>
+      <c r="I150" s="21"/>
+      <c r="J150" s="21"/>
+      <c r="K150" s="21"/>
+      <c r="L150" s="21"/>
+      <c r="M150" s="21"/>
+      <c r="N150" s="21"/>
+      <c r="O150" s="21"/>
+      <c r="P150" s="21"/>
+      <c r="Q150" s="21"/>
+      <c r="R150" s="21"/>
+      <c r="S150" s="21"/>
+      <c r="T150" s="21"/>
+      <c r="U150" s="21"/>
+      <c r="V150" s="21"/>
+      <c r="W150" s="21"/>
+    </row>
+    <row r="151" spans="1:23" ht="15.75" thickTop="1"/>
+    <row r="152" spans="1:23">
+      <c r="B152" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" t="s">
+        <v>142</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" t="s">
+        <v>21</v>
+      </c>
+      <c r="G154" t="s">
+        <v>22</v>
+      </c>
+      <c r="H154" t="s">
+        <v>23</v>
+      </c>
+      <c r="I154" t="s">
+        <v>10</v>
+      </c>
+      <c r="J154" t="s">
+        <v>16</v>
+      </c>
+      <c r="K154" t="s">
+        <v>11</v>
+      </c>
+      <c r="L154" t="s">
+        <v>12</v>
+      </c>
+      <c r="M154" t="s">
+        <v>13</v>
+      </c>
+      <c r="N154" t="s">
+        <v>14</v>
+      </c>
+      <c r="O154" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P154" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>89</v>
+      </c>
+      <c r="R154" t="s">
+        <v>57</v>
+      </c>
+      <c r="S154" t="s">
+        <v>15</v>
+      </c>
+      <c r="T154" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23">
+      <c r="A155" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" s="7">
+        <v>1269</v>
+      </c>
+      <c r="C155" s="8">
+        <v>240</v>
+      </c>
+      <c r="D155" s="8">
+        <v>187</v>
+      </c>
+      <c r="E155" s="8">
+        <v>18</v>
+      </c>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8">
+        <v>377611150</v>
+      </c>
+      <c r="H155" s="8">
+        <v>346000222</v>
+      </c>
+      <c r="I155" s="8">
+        <v>3500</v>
+      </c>
+      <c r="J155" s="8">
+        <v>260</v>
+      </c>
+      <c r="K155" s="8">
+        <v>560</v>
+      </c>
+      <c r="L155" s="8">
+        <v>440</v>
+      </c>
+      <c r="M155" s="8">
+        <v>42.2</v>
+      </c>
+      <c r="N155" s="8">
+        <v>39.9</v>
+      </c>
+      <c r="O155" s="8">
+        <f>(K155-L155)/(K155+L155)</f>
+        <v>0.12</v>
+      </c>
+      <c r="P155" s="22">
+        <v>256</v>
+      </c>
+      <c r="Q155" s="8"/>
+      <c r="R155" s="8">
+        <v>80</v>
+      </c>
+      <c r="S155" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="T155" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23">
+      <c r="B156" s="10">
+        <v>1270</v>
+      </c>
+      <c r="C156" s="11">
+        <v>240</v>
+      </c>
+      <c r="D156" s="11">
+        <v>187</v>
+      </c>
+      <c r="E156" s="11">
+        <v>18</v>
+      </c>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11">
+        <v>3150</v>
+      </c>
+      <c r="J156" s="11">
+        <v>250</v>
+      </c>
+      <c r="K156" s="11">
+        <v>550</v>
+      </c>
+      <c r="L156" s="11">
+        <v>450</v>
+      </c>
+      <c r="M156" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N156" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O156" s="11">
+        <f>(K156-L156)/(K156+L156)</f>
+        <v>0.1</v>
+      </c>
+      <c r="P156" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q156" s="11"/>
+      <c r="R156" s="11">
+        <v>80</v>
+      </c>
+      <c r="S156" s="11"/>
+      <c r="T156" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23">
+      <c r="B157" s="10">
+        <v>1270</v>
+      </c>
+      <c r="C157" s="11">
+        <v>240</v>
+      </c>
+      <c r="D157" s="11">
+        <v>187</v>
+      </c>
+      <c r="E157" s="11">
+        <v>18</v>
+      </c>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11">
+        <v>3500</v>
+      </c>
+      <c r="J157" s="11">
+        <v>270</v>
+      </c>
+      <c r="K157" s="11">
+        <v>570</v>
+      </c>
+      <c r="L157" s="11">
+        <v>430</v>
+      </c>
+      <c r="M157" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N157" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O157" s="11">
+        <f t="shared" ref="O157:O164" si="11">(K157-L157)/(K157+L157)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P157" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q157" s="11"/>
+      <c r="R157" s="11">
+        <v>80</v>
+      </c>
+      <c r="S157" s="11"/>
+      <c r="T157" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23">
+      <c r="B158" s="10">
+        <v>1270</v>
+      </c>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11">
+        <v>3250</v>
+      </c>
+      <c r="J158" s="11">
+        <v>260</v>
+      </c>
+      <c r="K158" s="11">
+        <v>572.5</v>
+      </c>
+      <c r="L158" s="11">
+        <v>427.5</v>
+      </c>
+      <c r="M158" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N158" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O158" s="11">
+        <f t="shared" si="11"/>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="P158" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q158" s="11"/>
+      <c r="R158" s="11">
+        <v>80</v>
+      </c>
+      <c r="S158" s="11"/>
+      <c r="T158" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23">
+      <c r="B159" s="10">
+        <v>1270</v>
+      </c>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11">
+        <v>3450</v>
+      </c>
+      <c r="J159" s="11">
+        <v>250</v>
+      </c>
+      <c r="K159" s="11">
+        <v>575</v>
+      </c>
+      <c r="L159" s="11">
+        <v>425</v>
+      </c>
+      <c r="M159" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N159" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O159" s="11">
+        <f t="shared" si="11"/>
+        <v>0.15</v>
+      </c>
+      <c r="P159" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q159" s="11"/>
+      <c r="R159" s="11">
+        <v>80</v>
+      </c>
+      <c r="S159" s="11"/>
+      <c r="T159" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23">
+      <c r="B160" s="10">
+        <v>1270</v>
+      </c>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="11">
+        <v>3300</v>
+      </c>
+      <c r="J160" s="11">
+        <v>260</v>
+      </c>
+      <c r="K160" s="11">
+        <v>577</v>
+      </c>
+      <c r="L160" s="11">
+        <v>423</v>
+      </c>
+      <c r="M160" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N160" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O160" s="11">
+        <f t="shared" si="11"/>
+        <v>0.154</v>
+      </c>
+      <c r="P160" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q160" s="11"/>
+      <c r="R160" s="11">
+        <v>80</v>
+      </c>
+      <c r="S160" s="11"/>
+      <c r="T160" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="2:20">
+      <c r="B161" s="10">
+        <v>1271</v>
+      </c>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11">
+        <v>3400</v>
+      </c>
+      <c r="J161" s="11">
+        <v>260</v>
+      </c>
+      <c r="K161" s="11">
+        <v>580</v>
+      </c>
+      <c r="L161" s="11">
+        <v>420</v>
+      </c>
+      <c r="M161" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N161" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O161" s="11">
+        <f t="shared" si="11"/>
+        <v>0.16</v>
+      </c>
+      <c r="P161" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q161" s="11"/>
+      <c r="R161" s="11">
+        <v>80</v>
+      </c>
+      <c r="S161" s="11"/>
+      <c r="T161" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B162" s="10">
+        <v>1272</v>
+      </c>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="11">
+        <v>3400</v>
+      </c>
+      <c r="J162" s="11">
+        <v>260</v>
+      </c>
+      <c r="K162" s="11">
+        <v>585</v>
+      </c>
+      <c r="L162" s="11">
+        <v>415</v>
+      </c>
+      <c r="M162" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N162" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O162" s="11">
+        <f t="shared" si="11"/>
+        <v>0.17</v>
+      </c>
+      <c r="P162" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q162" s="11"/>
+      <c r="R162" s="11">
+        <v>80</v>
+      </c>
+      <c r="S162" s="11"/>
+      <c r="T162" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="2:20">
+      <c r="B163" s="10">
+        <v>1272</v>
+      </c>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11">
+        <v>3500</v>
+      </c>
+      <c r="J163" s="11">
+        <v>240</v>
+      </c>
+      <c r="K163" s="11">
+        <v>590</v>
+      </c>
+      <c r="L163" s="11">
+        <v>410</v>
+      </c>
+      <c r="M163" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N163" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O163" s="11">
+        <f t="shared" si="11"/>
+        <v>0.18</v>
+      </c>
+      <c r="P163" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q163" s="11"/>
+      <c r="R163" s="11">
+        <v>80</v>
+      </c>
+      <c r="S163" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="T163" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B164" s="13">
+        <v>1271</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6">
+        <v>3150</v>
+      </c>
+      <c r="J164" s="6">
+        <v>260</v>
+      </c>
+      <c r="K164" s="6">
+        <v>600</v>
+      </c>
+      <c r="L164" s="6">
+        <v>400</v>
+      </c>
+      <c r="M164" s="6">
+        <v>42.2</v>
+      </c>
+      <c r="N164" s="6">
+        <v>39.9</v>
+      </c>
+      <c r="O164" s="6">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="P164" s="17">
+        <v>256</v>
+      </c>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="6">
+        <v>80</v>
+      </c>
+      <c r="S164" s="6"/>
+      <c r="T164" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:20" ht="15.75" thickBot="1"/>
+    <row r="167" spans="2:20">
+      <c r="B167">
+        <v>596</v>
+      </c>
+      <c r="C167">
+        <v>240</v>
+      </c>
+      <c r="D167">
+        <v>187</v>
+      </c>
+      <c r="E167">
+        <v>18</v>
+      </c>
+      <c r="G167">
+        <v>37761113</v>
+      </c>
+      <c r="H167">
+        <v>346000222</v>
+      </c>
+      <c r="I167">
+        <v>3200</v>
+      </c>
+      <c r="J167">
+        <v>250</v>
+      </c>
+      <c r="K167" s="11">
+        <v>600</v>
+      </c>
+      <c r="L167" s="11">
+        <v>400</v>
+      </c>
+      <c r="M167" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N167" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O167" s="11">
+        <f t="shared" ref="O167:O174" si="12">(K167-L167)/(K167+L167)</f>
+        <v>0.2</v>
+      </c>
+      <c r="P167" s="16">
+        <v>256</v>
+      </c>
+      <c r="R167">
+        <v>80</v>
+      </c>
+      <c r="S167" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="T167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:20">
+      <c r="B168">
+        <v>596</v>
+      </c>
+      <c r="I168">
+        <v>3300</v>
+      </c>
+      <c r="J168">
+        <v>260</v>
+      </c>
+      <c r="K168" s="11">
+        <v>590</v>
+      </c>
+      <c r="L168" s="11">
+        <v>410</v>
+      </c>
+      <c r="M168" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N168" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O168" s="11">
+        <f t="shared" si="12"/>
+        <v>0.18</v>
+      </c>
+      <c r="P168" s="16">
+        <v>256</v>
+      </c>
+      <c r="T168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:20">
+      <c r="B169">
+        <v>594</v>
+      </c>
+      <c r="I169">
+        <v>3400</v>
+      </c>
+      <c r="J169">
+        <v>250</v>
+      </c>
+      <c r="K169" s="11">
+        <v>585</v>
+      </c>
+      <c r="L169" s="11">
+        <v>415</v>
+      </c>
+      <c r="M169" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N169" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O169" s="11">
+        <f t="shared" si="12"/>
+        <v>0.17</v>
+      </c>
+      <c r="P169" s="16">
+        <v>256</v>
+      </c>
+      <c r="T169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="2:20">
+      <c r="B170">
+        <v>593</v>
+      </c>
+      <c r="I170">
+        <v>3150</v>
+      </c>
+      <c r="J170">
+        <v>250</v>
+      </c>
+      <c r="K170" s="11">
+        <v>580</v>
+      </c>
+      <c r="L170" s="11">
+        <v>420</v>
+      </c>
+      <c r="M170" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N170" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O170" s="11">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
+      <c r="P170" s="16">
+        <v>256</v>
+      </c>
+      <c r="T170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="2:20">
+      <c r="B171">
+        <v>595</v>
+      </c>
+      <c r="I171">
+        <v>3300</v>
+      </c>
+      <c r="J171">
+        <v>260</v>
+      </c>
+      <c r="K171" s="11">
+        <v>577</v>
+      </c>
+      <c r="L171" s="11">
+        <v>423</v>
+      </c>
+      <c r="M171" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N171" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O171" s="11">
+        <f t="shared" si="12"/>
+        <v>0.154</v>
+      </c>
+      <c r="P171" s="16">
+        <v>256</v>
+      </c>
+      <c r="T171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="2:20">
+      <c r="B172">
+        <v>593</v>
+      </c>
+      <c r="I172">
+        <v>3150</v>
+      </c>
+      <c r="J172">
+        <v>260</v>
+      </c>
+      <c r="K172" s="11">
+        <v>575</v>
+      </c>
+      <c r="L172" s="11">
+        <v>425</v>
+      </c>
+      <c r="M172" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N172" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O172" s="11">
+        <f t="shared" si="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="T172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="2:20">
+      <c r="B173">
+        <v>594</v>
+      </c>
+      <c r="I173">
+        <v>2950</v>
+      </c>
+      <c r="J173">
+        <v>220</v>
+      </c>
+      <c r="K173" s="11">
+        <v>572.5</v>
+      </c>
+      <c r="L173" s="11">
+        <v>427.5</v>
+      </c>
+      <c r="M173" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N173" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O173" s="11">
+        <f t="shared" si="12"/>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="T173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B174">
+        <v>593</v>
+      </c>
+      <c r="I174">
+        <v>3100</v>
+      </c>
+      <c r="J174">
+        <v>260</v>
+      </c>
+      <c r="K174" s="11">
+        <v>570</v>
+      </c>
+      <c r="L174" s="11">
+        <v>430</v>
+      </c>
+      <c r="M174" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N174" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O174" s="11">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T174">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="2:20">
+      <c r="B175">
+        <v>594</v>
+      </c>
+      <c r="I175">
+        <v>3100</v>
+      </c>
+      <c r="J175">
+        <v>240</v>
+      </c>
+      <c r="K175" s="11">
+        <v>560</v>
+      </c>
+      <c r="L175" s="11">
+        <v>440</v>
+      </c>
+      <c r="M175" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N175" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O175" s="11">
+        <f>(K175-L175)/(K175+L175)</f>
+        <v>0.12</v>
+      </c>
+      <c r="S175" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="T175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:20">
+      <c r="B176">
+        <v>593</v>
+      </c>
+      <c r="I176">
+        <v>3100</v>
+      </c>
+      <c r="J176">
+        <v>260</v>
+      </c>
+      <c r="K176" s="11">
+        <v>550</v>
+      </c>
+      <c r="L176" s="11">
+        <v>450</v>
+      </c>
+      <c r="M176" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N176" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O176" s="11">
+        <f>(K176-L176)/(K176+L176)</f>
+        <v>0.1</v>
+      </c>
+      <c r="P176" s="16">
+        <v>256</v>
+      </c>
+      <c r="T176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23">
+      <c r="B177">
+        <v>594</v>
+      </c>
+      <c r="I177">
+        <v>3150</v>
+      </c>
+      <c r="J177">
+        <v>260</v>
+      </c>
+      <c r="K177" s="16">
+        <v>500</v>
+      </c>
+      <c r="L177" s="16">
+        <v>500</v>
+      </c>
+      <c r="M177" s="16">
+        <v>42.2</v>
+      </c>
+      <c r="N177" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O177" s="16">
+        <f>(K177-L177)/(K177+L177)</f>
+        <v>0</v>
+      </c>
+      <c r="P177" s="16">
+        <v>256</v>
+      </c>
+      <c r="T177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A180" s="20">
+        <v>43974</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" ht="15.75" thickTop="1">
+      <c r="A181" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23">
+      <c r="B183" t="s">
+        <v>17</v>
+      </c>
+      <c r="C183">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23">
+      <c r="B184" t="s">
+        <v>160</v>
+      </c>
+      <c r="E184" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23">
+      <c r="B185" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23">
+      <c r="B187" t="s">
+        <v>88</v>
+      </c>
+      <c r="C187" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23">
+      <c r="C190" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A191" t="s">
+        <v>164</v>
+      </c>
+      <c r="C191" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" t="s">
+        <v>20</v>
+      </c>
+      <c r="F191" t="s">
+        <v>21</v>
+      </c>
+      <c r="G191" t="s">
+        <v>22</v>
+      </c>
+      <c r="H191" t="s">
+        <v>23</v>
+      </c>
+      <c r="I191" t="s">
+        <v>10</v>
+      </c>
+      <c r="J191" t="s">
+        <v>16</v>
+      </c>
+      <c r="K191" t="s">
+        <v>11</v>
+      </c>
+      <c r="L191" t="s">
+        <v>12</v>
+      </c>
+      <c r="M191" t="s">
+        <v>13</v>
+      </c>
+      <c r="N191" t="s">
+        <v>14</v>
+      </c>
+      <c r="O191" t="s">
+        <v>86</v>
+      </c>
+      <c r="P191" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>89</v>
+      </c>
+      <c r="R191" t="s">
+        <v>57</v>
+      </c>
+      <c r="S191" t="s">
+        <v>15</v>
+      </c>
+      <c r="T191" t="s">
+        <v>18</v>
+      </c>
+      <c r="U191" t="s">
+        <v>58</v>
+      </c>
+      <c r="W191" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A192">
+        <v>985</v>
+      </c>
+      <c r="C192">
+        <v>240</v>
+      </c>
+      <c r="D192">
+        <v>187.5</v>
+      </c>
+      <c r="E192">
+        <v>18</v>
+      </c>
+      <c r="F192">
+        <v>90.07</v>
+      </c>
+      <c r="G192">
+        <v>377611314</v>
+      </c>
+      <c r="H192">
+        <v>346000280</v>
+      </c>
+      <c r="I192">
+        <v>3000</v>
+      </c>
+      <c r="J192">
+        <v>250</v>
+      </c>
+      <c r="K192">
+        <v>500</v>
+      </c>
+      <c r="L192">
+        <v>500</v>
+      </c>
+      <c r="M192">
+        <v>50</v>
+      </c>
+      <c r="N192">
+        <v>50</v>
+      </c>
+      <c r="O192" s="11">
+        <f>(K192-L192)/(K192+L192)</f>
+        <v>0</v>
+      </c>
+      <c r="P192" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q192" s="8">
+        <f xml:space="preserve"> $C$187/(I192-J192)</f>
+        <v>90.909090909090907</v>
+      </c>
+      <c r="R192" s="16">
+        <v>90</v>
+      </c>
+      <c r="S192" t="s">
+        <v>162</v>
+      </c>
+      <c r="T192">
+        <v>0</v>
+      </c>
+      <c r="U192">
+        <v>1</v>
+      </c>
+      <c r="V192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="3:22" ht="15.75" thickBot="1">
+      <c r="C193">
+        <v>240</v>
+      </c>
+      <c r="D193">
+        <v>187.5</v>
+      </c>
+      <c r="E193">
+        <v>18</v>
+      </c>
+      <c r="F193">
+        <v>90.07</v>
+      </c>
+      <c r="G193">
+        <v>377611299</v>
+      </c>
+      <c r="H193">
+        <v>346000284</v>
+      </c>
+      <c r="I193">
+        <v>3200</v>
+      </c>
+      <c r="J193">
+        <v>250</v>
+      </c>
+      <c r="K193">
+        <v>550</v>
+      </c>
+      <c r="L193">
+        <v>450</v>
+      </c>
+      <c r="M193">
+        <v>50</v>
+      </c>
+      <c r="N193">
+        <v>50</v>
+      </c>
+      <c r="O193" s="11">
+        <f>(K193-L193)/(K193+L193)</f>
+        <v>0.1</v>
+      </c>
+      <c r="P193" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q193" s="8">
+        <f xml:space="preserve"> $C$187/(I193-J193)</f>
+        <v>84.745762711864401</v>
+      </c>
+      <c r="R193" s="16">
+        <v>85</v>
+      </c>
+      <c r="T193">
+        <v>1</v>
+      </c>
+      <c r="U193">
+        <v>1</v>
+      </c>
+      <c r="V193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="3:22" ht="15.75" thickBot="1">
+      <c r="O194" s="11"/>
+      <c r="Q194" s="8"/>
+    </row>
+    <row r="195" spans="3:22" ht="15.75" thickBot="1">
+      <c r="C195">
+        <v>240</v>
+      </c>
+      <c r="D195">
+        <v>187.5</v>
+      </c>
+      <c r="E195">
+        <v>18</v>
+      </c>
+      <c r="F195">
+        <v>90.07</v>
+      </c>
+      <c r="G195">
+        <v>377611319</v>
+      </c>
+      <c r="I195">
+        <v>3150</v>
+      </c>
+      <c r="J195">
+        <v>250</v>
+      </c>
+      <c r="K195">
+        <v>569</v>
+      </c>
+      <c r="L195">
+        <v>431</v>
+      </c>
+      <c r="M195">
+        <v>50</v>
+      </c>
+      <c r="N195">
+        <v>50</v>
+      </c>
+      <c r="O195" s="11">
+        <f t="shared" ref="O194:O207" si="13">(K195-L195)/(K195+L195)</f>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="P195" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q195" s="8">
+        <f t="shared" ref="Q194:Q205" si="14" xml:space="preserve"> $C$187/(I195-J195)</f>
+        <v>86.206896551724142</v>
+      </c>
+      <c r="R195" s="16">
+        <v>85</v>
+      </c>
+      <c r="S195" t="s">
+        <v>163</v>
+      </c>
+      <c r="T195">
+        <v>0</v>
+      </c>
+      <c r="U195">
+        <v>2</v>
+      </c>
+      <c r="V195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="3:22" ht="15.75" thickBot="1">
+      <c r="G196">
+        <v>377611309</v>
+      </c>
+      <c r="I196">
+        <v>3200</v>
+      </c>
+      <c r="J196">
+        <v>240</v>
+      </c>
+      <c r="K196">
+        <v>603</v>
+      </c>
+      <c r="L196">
+        <v>397</v>
+      </c>
+      <c r="M196">
+        <v>50</v>
+      </c>
+      <c r="N196">
+        <v>50</v>
+      </c>
+      <c r="O196" s="11">
+        <f t="shared" si="13"/>
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="P196" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q196" s="8">
+        <f t="shared" si="14"/>
+        <v>84.459459459459453</v>
+      </c>
+      <c r="R196" s="16">
+        <v>85</v>
+      </c>
+      <c r="T196">
+        <v>1</v>
+      </c>
+      <c r="U196">
+        <v>2</v>
+      </c>
+      <c r="V196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="3:22" ht="15.75" thickBot="1">
+      <c r="O197" s="11"/>
+      <c r="P197" s="16"/>
+      <c r="Q197" s="8"/>
+    </row>
+    <row r="198" spans="3:22" ht="15.75" thickBot="1">
+      <c r="C198">
+        <v>240</v>
+      </c>
+      <c r="D198">
+        <v>187.5</v>
+      </c>
+      <c r="E198">
+        <v>18</v>
+      </c>
+      <c r="F198">
+        <v>90.07</v>
+      </c>
+      <c r="G198">
+        <v>37761298</v>
+      </c>
+      <c r="H198">
+        <v>346000285</v>
+      </c>
+      <c r="I198">
+        <v>3200</v>
+      </c>
+      <c r="J198">
+        <v>250</v>
+      </c>
+      <c r="K198">
+        <v>587</v>
+      </c>
+      <c r="L198">
+        <v>413</v>
+      </c>
+      <c r="M198">
+        <v>50</v>
+      </c>
+      <c r="N198">
+        <v>50</v>
+      </c>
+      <c r="O198" s="11">
+        <f t="shared" si="13"/>
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="P198" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q198" s="8">
+        <f t="shared" si="14"/>
+        <v>84.745762711864401</v>
+      </c>
+      <c r="R198" s="16">
+        <v>85</v>
+      </c>
+      <c r="S198" t="s">
+        <v>165</v>
+      </c>
+      <c r="T198">
+        <v>0</v>
+      </c>
+      <c r="U198">
+        <v>3</v>
+      </c>
+      <c r="V198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="3:22" ht="15.75" thickBot="1">
+      <c r="I199">
+        <v>3250</v>
+      </c>
+      <c r="J199">
+        <v>250</v>
+      </c>
+      <c r="K199">
+        <v>580</v>
+      </c>
+      <c r="L199">
+        <v>420</v>
+      </c>
+      <c r="M199">
+        <v>50</v>
+      </c>
+      <c r="N199">
+        <v>50</v>
+      </c>
+      <c r="O199" s="11">
+        <f t="shared" si="13"/>
+        <v>0.16</v>
+      </c>
+      <c r="P199" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q199" s="8">
+        <f t="shared" si="14"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="R199" s="16">
+        <v>85</v>
+      </c>
+      <c r="T199">
+        <v>1</v>
+      </c>
+      <c r="U199">
+        <v>3</v>
+      </c>
+      <c r="V199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="3:22" ht="15.75" thickBot="1">
+      <c r="O200" s="11"/>
+      <c r="Q200" s="8"/>
+    </row>
+    <row r="201" spans="3:22" ht="15.75" thickBot="1">
+      <c r="C201">
+        <v>240</v>
+      </c>
+      <c r="D201">
+        <v>187.5</v>
+      </c>
+      <c r="E201">
+        <v>18</v>
+      </c>
+      <c r="F201">
+        <v>90.07</v>
+      </c>
+      <c r="I201">
+        <v>3250</v>
+      </c>
+      <c r="J201">
+        <v>250</v>
+      </c>
+      <c r="K201">
+        <v>581</v>
+      </c>
+      <c r="L201">
+        <v>419</v>
+      </c>
+      <c r="M201">
+        <v>50</v>
+      </c>
+      <c r="N201">
+        <v>50</v>
+      </c>
+      <c r="O201" s="11">
+        <f t="shared" si="13"/>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="P201" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q201" s="8">
+        <f t="shared" si="14"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="R201" s="16">
+        <v>85</v>
+      </c>
+      <c r="S201" t="s">
+        <v>166</v>
+      </c>
+      <c r="T201">
+        <v>0</v>
+      </c>
+      <c r="V201">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="3:22" ht="15.75" thickBot="1">
+      <c r="I202">
+        <v>3200</v>
+      </c>
+      <c r="J202">
+        <v>260</v>
+      </c>
+      <c r="K202">
+        <v>582</v>
+      </c>
+      <c r="L202">
+        <v>418</v>
+      </c>
+      <c r="M202">
+        <v>50</v>
+      </c>
+      <c r="N202">
+        <v>50</v>
+      </c>
+      <c r="O202" s="11">
+        <f t="shared" si="13"/>
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="P202" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q202" s="8">
+        <f t="shared" si="14"/>
+        <v>85.034013605442183</v>
+      </c>
+      <c r="R202" s="16">
+        <v>85</v>
+      </c>
+      <c r="T202">
+        <v>1</v>
+      </c>
+      <c r="V202">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="3:22" ht="15.75" thickBot="1">
+      <c r="I203">
+        <v>3200</v>
+      </c>
+      <c r="J203">
+        <v>260</v>
+      </c>
+      <c r="K203">
+        <v>583</v>
+      </c>
+      <c r="L203">
+        <v>417</v>
+      </c>
+      <c r="M203">
+        <v>50</v>
+      </c>
+      <c r="N203">
+        <v>50</v>
+      </c>
+      <c r="O203" s="11">
+        <f t="shared" si="13"/>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="P203" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q203" s="8">
+        <f t="shared" si="14"/>
+        <v>85.034013605442183</v>
+      </c>
+      <c r="R203" s="16">
+        <v>85</v>
+      </c>
+      <c r="T203">
+        <v>2</v>
+      </c>
+      <c r="V203">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="3:22" ht="15.75" thickBot="1">
+      <c r="I204">
+        <v>3200</v>
+      </c>
+      <c r="J204">
+        <v>260</v>
+      </c>
+      <c r="K204">
+        <v>584</v>
+      </c>
+      <c r="L204">
+        <v>416</v>
+      </c>
+      <c r="M204">
+        <v>50</v>
+      </c>
+      <c r="N204">
+        <v>50</v>
+      </c>
+      <c r="O204" s="11">
+        <f t="shared" si="13"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="P204" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q204" s="8">
+        <f t="shared" si="14"/>
+        <v>85.034013605442183</v>
+      </c>
+      <c r="R204" s="16">
+        <v>85</v>
+      </c>
+      <c r="T204">
+        <v>3</v>
+      </c>
+      <c r="V204">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="3:22">
+      <c r="I205">
+        <v>3200</v>
+      </c>
+      <c r="J205">
+        <v>260</v>
+      </c>
+      <c r="K205">
+        <v>585</v>
+      </c>
+      <c r="L205">
+        <v>415</v>
+      </c>
+      <c r="M205">
+        <v>50</v>
+      </c>
+      <c r="N205">
+        <v>50</v>
+      </c>
+      <c r="O205" s="11">
+        <f t="shared" si="13"/>
+        <v>0.17</v>
+      </c>
+      <c r="P205" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q205" s="8">
+        <f t="shared" si="14"/>
+        <v>85.034013605442183</v>
+      </c>
+      <c r="R205" s="16">
+        <v>85</v>
+      </c>
+      <c r="T205">
+        <v>4</v>
+      </c>
+      <c r="V205">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="3:22">
+      <c r="O206" s="11"/>
+    </row>
+    <row r="207" spans="3:22">
+      <c r="I207">
+        <v>3050</v>
+      </c>
+      <c r="J207">
+        <v>250</v>
+      </c>
+      <c r="K207" s="1">
+        <v>583</v>
+      </c>
+      <c r="L207" s="1">
+        <v>417</v>
+      </c>
+      <c r="M207">
+        <v>50</v>
+      </c>
+      <c r="N207">
+        <v>50</v>
+      </c>
+      <c r="O207" s="11">
+        <f t="shared" si="13"/>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="P207" s="16">
+        <v>256</v>
+      </c>
+      <c r="R207">
+        <v>400</v>
+      </c>
+      <c r="S207" t="s">
+        <v>167</v>
+      </c>
+      <c r="T207">
+        <v>0</v>
+      </c>
+      <c r="V207">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22">
+      <c r="C209" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D209" s="23"/>
+      <c r="E209" s="23"/>
+      <c r="F209" s="23"/>
+      <c r="G209" s="23"/>
+      <c r="H209" s="23"/>
+      <c r="I209" s="23"/>
+      <c r="J209" s="23"/>
+      <c r="K209" s="23"/>
+      <c r="L209" s="23"/>
+      <c r="M209" s="23"/>
+      <c r="N209" s="23"/>
+      <c r="O209" s="23"/>
+      <c r="P209" s="23"/>
+      <c r="Q209" s="23"/>
+      <c r="R209" s="23"/>
+      <c r="S209" s="23"/>
+      <c r="T209" s="23"/>
+      <c r="U209" s="23"/>
+      <c r="V209" s="23"/>
+    </row>
+    <row r="210" spans="1:22">
+      <c r="C210" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E210" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F210" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G210" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H210" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I210" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J210" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L210" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M210" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N210" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O210" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P210" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q210" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R210" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="S210" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T210" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U210" s="11"/>
+      <c r="V210" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22">
+      <c r="C211" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D211" s="11">
+        <v>18</v>
+      </c>
+      <c r="E211" s="11">
+        <v>90.07</v>
+      </c>
+      <c r="F211" s="11">
+        <v>377611289</v>
+      </c>
+      <c r="G211" s="11">
+        <v>346000288</v>
+      </c>
+      <c r="H211" s="16">
+        <v>3200</v>
+      </c>
+      <c r="I211" s="16">
+        <v>160</v>
+      </c>
+      <c r="J211" s="11">
+        <v>583</v>
+      </c>
+      <c r="K211" s="11">
+        <v>417</v>
+      </c>
+      <c r="L211" s="11">
+        <v>50</v>
+      </c>
+      <c r="M211" s="11">
+        <v>50</v>
+      </c>
+      <c r="N211" s="11"/>
+      <c r="O211" s="11">
+        <v>256</v>
+      </c>
+      <c r="P211" s="11">
+        <f>$C$187/(H211-I211)</f>
+        <v>82.236842105263165</v>
+      </c>
+      <c r="Q211" s="11">
+        <v>85</v>
+      </c>
+      <c r="R211" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="S211" s="11">
+        <v>0</v>
+      </c>
+      <c r="T211" s="11">
+        <v>1</v>
+      </c>
+      <c r="U211" s="16"/>
+      <c r="V211" s="24"/>
+    </row>
+    <row r="212" spans="1:22">
+      <c r="A212">
+        <v>982</v>
+      </c>
+      <c r="H212">
+        <v>3500</v>
+      </c>
+      <c r="I212">
+        <v>160</v>
+      </c>
+      <c r="J212">
+        <v>583</v>
+      </c>
+      <c r="K212">
+        <v>417</v>
+      </c>
+      <c r="L212">
+        <v>30</v>
+      </c>
+      <c r="M212">
+        <v>50</v>
+      </c>
+      <c r="O212">
+        <v>256</v>
+      </c>
+      <c r="P212" s="11">
+        <f>$C$187/(H212-I212)</f>
+        <v>74.850299401197603</v>
+      </c>
+      <c r="Q212" s="16">
+        <v>75</v>
+      </c>
+      <c r="S212">
+        <v>1</v>
+      </c>
+      <c r="T212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22">
+      <c r="P213" s="11"/>
+    </row>
+    <row r="214" spans="1:22">
+      <c r="C214">
+        <v>204</v>
+      </c>
+      <c r="D214">
+        <v>18</v>
+      </c>
+      <c r="E214">
+        <v>90.07</v>
+      </c>
+      <c r="H214">
+        <v>3300</v>
+      </c>
+      <c r="I214">
+        <v>160</v>
+      </c>
+      <c r="J214" s="11">
+        <v>583</v>
+      </c>
+      <c r="K214" s="11">
+        <v>417</v>
+      </c>
+      <c r="L214" s="11">
+        <v>40.9</v>
+      </c>
+      <c r="M214" s="11">
+        <v>50</v>
+      </c>
+      <c r="O214">
+        <v>256</v>
+      </c>
+      <c r="P214" s="11">
+        <f t="shared" ref="P213:P215" si="15">$C$187/(H214-I214)</f>
+        <v>79.617834394904463</v>
+      </c>
+      <c r="Q214" s="16">
+        <v>80</v>
+      </c>
+      <c r="R214" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="S214">
+        <v>0</v>
+      </c>
+      <c r="T214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22">
+      <c r="H215">
+        <v>3300</v>
+      </c>
+      <c r="I215">
+        <v>160</v>
+      </c>
+      <c r="J215">
+        <v>583</v>
+      </c>
+      <c r="K215">
+        <v>417</v>
+      </c>
+      <c r="L215">
+        <v>44.5</v>
+      </c>
+      <c r="M215">
+        <v>50</v>
+      </c>
+      <c r="O215">
+        <v>256</v>
+      </c>
+      <c r="P215" s="11">
+        <f t="shared" si="15"/>
+        <v>79.617834394904463</v>
+      </c>
+      <c r="Q215" s="16">
+        <v>80</v>
+      </c>
+      <c r="S215">
+        <v>1</v>
+      </c>
+      <c r="T215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22">
+      <c r="F217">
+        <v>377611311</v>
+      </c>
+      <c r="G217">
+        <v>346000286</v>
+      </c>
+      <c r="H217">
+        <v>3300</v>
+      </c>
+      <c r="I217">
+        <v>160</v>
+      </c>
+      <c r="J217" s="11">
+        <v>583</v>
+      </c>
+      <c r="K217" s="11">
+        <v>417</v>
+      </c>
+      <c r="L217" s="11">
+        <v>43.5</v>
+      </c>
+      <c r="M217" s="11">
+        <v>50</v>
+      </c>
+      <c r="O217">
+        <v>256</v>
+      </c>
+      <c r="Q217">
+        <v>80</v>
+      </c>
+      <c r="R217" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="S217">
+        <v>0</v>
+      </c>
+      <c r="T217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22">
+      <c r="H218">
+        <v>3300</v>
+      </c>
+      <c r="I218">
+        <v>160</v>
+      </c>
+      <c r="J218">
+        <v>583</v>
+      </c>
+      <c r="K218">
+        <v>417</v>
+      </c>
+      <c r="L218">
+        <v>42.5</v>
+      </c>
+      <c r="M218">
+        <v>50</v>
+      </c>
+      <c r="O218">
+        <v>256</v>
+      </c>
+      <c r="Q218">
+        <v>80</v>
+      </c>
+      <c r="S218">
+        <v>1</v>
+      </c>
+      <c r="T218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22">
+      <c r="H220">
+        <v>3300</v>
+      </c>
+      <c r="I220">
+        <v>160</v>
+      </c>
+      <c r="J220">
+        <v>583</v>
+      </c>
+      <c r="K220">
+        <v>417</v>
+      </c>
+      <c r="L220">
+        <v>43</v>
+      </c>
+      <c r="M220">
+        <v>50</v>
+      </c>
+      <c r="O220">
+        <v>256</v>
+      </c>
+      <c r="Q220">
+        <v>80</v>
+      </c>
+      <c r="R220" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22">
+      <c r="A221">
+        <v>982</v>
+      </c>
+      <c r="H221">
+        <v>3300</v>
+      </c>
+      <c r="I221">
+        <v>160</v>
+      </c>
+      <c r="J221">
+        <v>583</v>
+      </c>
+      <c r="K221">
+        <v>417</v>
+      </c>
+      <c r="L221">
+        <v>43.1</v>
+      </c>
+      <c r="M221">
+        <v>50</v>
+      </c>
+      <c r="O221">
+        <v>256</v>
+      </c>
+      <c r="Q221">
+        <v>80</v>
+      </c>
+      <c r="S221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22">
+      <c r="H222">
+        <v>3300</v>
+      </c>
+      <c r="I222">
+        <v>160</v>
+      </c>
+      <c r="J222">
+        <v>583</v>
+      </c>
+      <c r="K222">
+        <v>417</v>
+      </c>
+      <c r="L222">
+        <v>43.2</v>
+      </c>
+      <c r="M222">
+        <v>50</v>
+      </c>
+      <c r="O222">
+        <v>256</v>
+      </c>
+      <c r="Q222">
+        <v>80</v>
+      </c>
+      <c r="S222">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22">
+      <c r="H223">
+        <v>3300</v>
+      </c>
+      <c r="I223">
+        <v>160</v>
+      </c>
+      <c r="J223">
+        <v>583</v>
+      </c>
+      <c r="K223">
+        <v>417</v>
+      </c>
+      <c r="L223">
+        <v>43.3</v>
+      </c>
+      <c r="M223">
+        <v>50</v>
+      </c>
+      <c r="O223">
+        <v>256</v>
+      </c>
+      <c r="Q223">
+        <v>80</v>
+      </c>
+      <c r="S223">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22">
+      <c r="C225">
+        <v>204</v>
+      </c>
+      <c r="D225">
+        <v>18</v>
+      </c>
+      <c r="E225">
+        <v>90.07</v>
+      </c>
+      <c r="F225">
+        <v>377611293</v>
+      </c>
+      <c r="G225">
+        <v>346000287</v>
+      </c>
+      <c r="H225">
+        <v>3300</v>
+      </c>
+      <c r="I225">
+        <v>160</v>
+      </c>
+      <c r="J225" s="1">
+        <v>583</v>
+      </c>
+      <c r="K225" s="1">
+        <v>417</v>
+      </c>
+      <c r="L225" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="M225" s="1">
+        <v>50</v>
+      </c>
+      <c r="O225">
+        <v>256</v>
+      </c>
+      <c r="Q225">
+        <v>400</v>
+      </c>
+      <c r="S225">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22">
+      <c r="H226">
+        <v>3300</v>
+      </c>
+      <c r="I226">
+        <v>160</v>
+      </c>
+      <c r="J226">
+        <v>583</v>
+      </c>
+      <c r="K226">
+        <v>417</v>
+      </c>
+      <c r="L226">
+        <v>43.3</v>
+      </c>
+      <c r="M226">
+        <v>50</v>
+      </c>
+      <c r="O226">
+        <v>256</v>
+      </c>
+      <c r="Q226">
+        <v>400</v>
+      </c>
+      <c r="S226">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" s="23" customFormat="1">
+      <c r="B230" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D230" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22">
+      <c r="C231" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22">
+      <c r="C232" t="s">
+        <v>125</v>
+      </c>
+      <c r="D232" t="s">
+        <v>20</v>
+      </c>
+      <c r="E232" t="s">
+        <v>21</v>
+      </c>
+      <c r="F232" t="s">
+        <v>22</v>
+      </c>
+      <c r="G232" t="s">
+        <v>23</v>
+      </c>
+      <c r="H232" t="s">
+        <v>128</v>
+      </c>
+      <c r="I232" t="s">
+        <v>95</v>
+      </c>
+      <c r="J232" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" t="s">
+        <v>12</v>
+      </c>
+      <c r="L232" t="s">
+        <v>13</v>
+      </c>
+      <c r="M232" t="s">
+        <v>14</v>
+      </c>
+      <c r="N232" t="s">
+        <v>86</v>
+      </c>
+      <c r="O232" t="s">
+        <v>56</v>
+      </c>
+      <c r="P232" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>57</v>
+      </c>
+      <c r="R232" t="s">
+        <v>15</v>
+      </c>
+      <c r="S232" t="s">
+        <v>18</v>
+      </c>
+      <c r="T232" t="s">
+        <v>58</v>
+      </c>
+      <c r="V232" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22">
+      <c r="A233">
+        <v>982</v>
+      </c>
+      <c r="C233">
+        <v>385</v>
+      </c>
+      <c r="D233">
+        <v>18</v>
+      </c>
+      <c r="E233">
+        <v>90.7</v>
+      </c>
+      <c r="F233">
+        <v>37761276</v>
+      </c>
+      <c r="G233">
+        <v>346000296</v>
+      </c>
+      <c r="H233">
+        <v>2200</v>
+      </c>
+      <c r="J233" s="25">
+        <v>583</v>
+      </c>
+      <c r="K233" s="25">
+        <v>417</v>
+      </c>
+      <c r="L233" s="25">
+        <v>43.2</v>
+      </c>
+      <c r="M233" s="25">
+        <v>50</v>
+      </c>
+      <c r="O233">
+        <v>256</v>
+      </c>
+      <c r="P233" s="11">
+        <f>$C$187/(H233-I233)</f>
+        <v>113.63636363636364</v>
+      </c>
+      <c r="Q233">
+        <v>110</v>
+      </c>
+      <c r="R233" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22">
+      <c r="C234">
+        <v>385</v>
+      </c>
+      <c r="D234">
+        <v>18</v>
+      </c>
+      <c r="E234">
+        <v>90.7</v>
+      </c>
+      <c r="H234">
+        <v>2300</v>
+      </c>
+      <c r="J234">
+        <v>583</v>
+      </c>
+      <c r="K234">
+        <v>417</v>
+      </c>
+      <c r="L234">
+        <v>43.2</v>
+      </c>
+      <c r="M234">
+        <v>30</v>
+      </c>
+      <c r="O234">
+        <v>256</v>
+      </c>
+      <c r="P234" s="11">
+        <f>$C$187/(H234-I234)</f>
+        <v>108.69565217391305</v>
+      </c>
+      <c r="Q234" s="16">
+        <v>110</v>
+      </c>
+      <c r="S234">
+        <v>1</v>
+      </c>
+      <c r="T234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22">
+      <c r="P235" s="11"/>
+    </row>
+    <row r="236" spans="1:22">
+      <c r="H236">
+        <v>2200</v>
+      </c>
+      <c r="J236">
+        <v>583</v>
+      </c>
+      <c r="K236">
+        <v>417</v>
+      </c>
+      <c r="L236">
+        <v>43.2</v>
+      </c>
+      <c r="M236">
+        <v>35.6</v>
+      </c>
+      <c r="O236">
+        <v>256</v>
+      </c>
+      <c r="P236" s="11">
+        <f t="shared" ref="P235:P240" si="16">$C$187/(H236-I236)</f>
+        <v>113.63636363636364</v>
+      </c>
+      <c r="Q236">
+        <v>110</v>
+      </c>
+      <c r="R236" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="S236">
+        <v>0</v>
+      </c>
+      <c r="T236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22">
+      <c r="C237">
+        <v>385</v>
+      </c>
+      <c r="H237">
+        <v>2100</v>
+      </c>
+      <c r="J237">
+        <v>583</v>
+      </c>
+      <c r="K237">
+        <v>417</v>
+      </c>
+      <c r="L237">
+        <v>43.2</v>
+      </c>
+      <c r="M237">
+        <v>39.4</v>
+      </c>
+      <c r="O237">
+        <v>256</v>
+      </c>
+      <c r="P237" s="11">
+        <f t="shared" si="16"/>
+        <v>119.04761904761905</v>
+      </c>
+      <c r="Q237">
+        <v>115</v>
+      </c>
+      <c r="S237">
+        <v>1</v>
+      </c>
+      <c r="T237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22">
+      <c r="P238" s="11"/>
+    </row>
+    <row r="239" spans="1:22">
+      <c r="H239">
+        <v>2000</v>
+      </c>
+      <c r="J239">
+        <v>583</v>
+      </c>
+      <c r="K239">
+        <v>417</v>
+      </c>
+      <c r="L239">
+        <v>43.2</v>
+      </c>
+      <c r="M239">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="O239">
+        <v>256</v>
+      </c>
+      <c r="P239" s="11">
+        <f t="shared" si="16"/>
+        <v>125</v>
+      </c>
+      <c r="Q239" s="16">
+        <v>120</v>
+      </c>
+      <c r="R239" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="S239">
+        <v>0</v>
+      </c>
+      <c r="T239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22">
+      <c r="C240">
+        <v>385</v>
+      </c>
+      <c r="F240">
+        <v>377611284</v>
+      </c>
+      <c r="G240">
+        <v>346000284</v>
+      </c>
+      <c r="H240">
+        <v>2200</v>
+      </c>
+      <c r="J240">
+        <v>583</v>
+      </c>
+      <c r="K240">
+        <v>417</v>
+      </c>
+      <c r="L240">
+        <v>43.2</v>
+      </c>
+      <c r="M240">
+        <v>39</v>
+      </c>
+      <c r="O240">
+        <v>256</v>
+      </c>
+      <c r="P240" s="11">
+        <f t="shared" si="16"/>
+        <v>113.63636363636364</v>
+      </c>
+      <c r="Q240" s="16">
+        <v>110</v>
+      </c>
+      <c r="S240">
+        <v>1</v>
+      </c>
+      <c r="T240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19">
+      <c r="H242">
+        <v>2200</v>
+      </c>
+      <c r="J242">
+        <v>583</v>
+      </c>
+      <c r="K242">
+        <v>417</v>
+      </c>
+      <c r="L242">
+        <v>43.2</v>
+      </c>
+      <c r="M242">
+        <v>38.9</v>
+      </c>
+      <c r="O242">
+        <v>256</v>
+      </c>
+      <c r="Q242">
+        <v>110</v>
+      </c>
+      <c r="R242" t="s">
+        <v>178</v>
+      </c>
+      <c r="S242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19">
+      <c r="H243">
+        <v>2200</v>
+      </c>
+      <c r="J243">
+        <v>583</v>
+      </c>
+      <c r="K243">
+        <v>417</v>
+      </c>
+      <c r="L243">
+        <v>43.2</v>
+      </c>
+      <c r="M243">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="O243">
+        <v>256</v>
+      </c>
+      <c r="Q243">
+        <v>110</v>
+      </c>
+      <c r="S243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19">
+      <c r="H244">
+        <v>2200</v>
+      </c>
+      <c r="J244">
+        <v>583</v>
+      </c>
+      <c r="K244">
+        <v>417</v>
+      </c>
+      <c r="L244">
+        <v>43.2</v>
+      </c>
+      <c r="M244">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="O244">
+        <v>256</v>
+      </c>
+      <c r="Q244">
+        <v>110</v>
+      </c>
+      <c r="S244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19">
+      <c r="H246">
+        <v>2300</v>
+      </c>
+      <c r="J246">
+        <v>583</v>
+      </c>
+      <c r="K246">
+        <v>417</v>
+      </c>
+      <c r="L246">
+        <v>43.2</v>
+      </c>
+      <c r="M246">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="O246">
+        <v>256</v>
+      </c>
+      <c r="Q246">
+        <v>550</v>
+      </c>
+      <c r="S246">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19">
+      <c r="H247">
+        <v>2300</v>
+      </c>
+      <c r="J247">
+        <v>583</v>
+      </c>
+      <c r="K247">
+        <v>417</v>
+      </c>
+      <c r="L247">
+        <v>43.2</v>
+      </c>
+      <c r="M247">
+        <v>38.9</v>
+      </c>
+      <c r="O247">
+        <v>256</v>
+      </c>
+      <c r="Q247">
+        <v>550</v>
+      </c>
+      <c r="S247">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A251" s="20">
+        <v>43975</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19" ht="15.75" thickTop="1">
+      <c r="A252" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19">
+      <c r="A253" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19">
+      <c r="A254" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19">
+      <c r="C256" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21">
+      <c r="C257" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" t="s">
+        <v>9</v>
+      </c>
+      <c r="E257" t="s">
+        <v>20</v>
+      </c>
+      <c r="F257" t="s">
+        <v>21</v>
+      </c>
+      <c r="G257" t="s">
+        <v>22</v>
+      </c>
+      <c r="H257" t="s">
+        <v>23</v>
+      </c>
+      <c r="I257" t="s">
+        <v>10</v>
+      </c>
+      <c r="J257" t="s">
+        <v>16</v>
+      </c>
+      <c r="K257" t="s">
+        <v>11</v>
+      </c>
+      <c r="L257" t="s">
+        <v>12</v>
+      </c>
+      <c r="M257" t="s">
+        <v>13</v>
+      </c>
+      <c r="N257" t="s">
+        <v>14</v>
+      </c>
+      <c r="O257" t="s">
+        <v>86</v>
+      </c>
+      <c r="P257" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>89</v>
+      </c>
+      <c r="R257" t="s">
+        <v>57</v>
+      </c>
+      <c r="S257" t="s">
+        <v>15</v>
+      </c>
+      <c r="T257" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21">
+      <c r="C258">
+        <v>240</v>
+      </c>
+      <c r="D258">
+        <v>187.5</v>
+      </c>
+      <c r="E258">
+        <v>18</v>
+      </c>
+      <c r="F258">
+        <v>90.07</v>
+      </c>
+      <c r="G258">
+        <v>377611168</v>
+      </c>
+      <c r="H258">
+        <v>346000238</v>
+      </c>
+      <c r="I258">
+        <v>3200</v>
+      </c>
+      <c r="J258">
+        <v>270</v>
+      </c>
+      <c r="K258">
+        <v>583</v>
+      </c>
+      <c r="L258">
+        <v>417</v>
+      </c>
+      <c r="M258">
+        <v>43.2</v>
+      </c>
+      <c r="N258">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="O258" s="11">
+        <f>(K258-L258)/(K258+L258)</f>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="P258" s="16">
+        <v>256</v>
+      </c>
+      <c r="R258">
+        <v>400</v>
+      </c>
+      <c r="S258" t="s">
+        <v>182</v>
+      </c>
+      <c r="T258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21">
+      <c r="C259" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D259" s="23"/>
+      <c r="E259" s="23"/>
+      <c r="F259" s="23"/>
+      <c r="G259" s="23"/>
+      <c r="H259" s="23"/>
+      <c r="I259" s="23"/>
+      <c r="J259" s="23"/>
+      <c r="K259" s="23"/>
+      <c r="L259" s="23"/>
+      <c r="M259" s="23"/>
+      <c r="N259" s="23"/>
+      <c r="O259" s="23"/>
+      <c r="P259" s="23"/>
+      <c r="Q259" s="23"/>
+      <c r="R259" s="23"/>
+      <c r="S259" s="23"/>
+    </row>
+    <row r="260" spans="1:21">
+      <c r="D260" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E260" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F260" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G260" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H260" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I260" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J260" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K260" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L260" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M260" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N260" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O260" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P260" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q260" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="R260" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S260" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="T260" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21">
+      <c r="D261" t="s">
+        <v>183</v>
+      </c>
+      <c r="E261">
+        <v>18</v>
+      </c>
+      <c r="F261">
+        <v>90.07</v>
+      </c>
+      <c r="G261">
+        <v>377611170</v>
+      </c>
+      <c r="H261">
+        <v>346000229</v>
+      </c>
+      <c r="I261">
+        <v>3250</v>
+      </c>
+      <c r="J261">
+        <v>170</v>
+      </c>
+      <c r="K261">
+        <v>583</v>
+      </c>
+      <c r="L261">
+        <v>417</v>
+      </c>
+      <c r="M261">
+        <v>43.2</v>
+      </c>
+      <c r="N261">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="P261">
+        <v>256</v>
+      </c>
+      <c r="R261">
+        <v>400</v>
+      </c>
+      <c r="S261" t="s">
+        <v>182</v>
+      </c>
+      <c r="T261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21">
+      <c r="C262" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21">
+      <c r="D263" t="s">
+        <v>125</v>
+      </c>
+      <c r="E263" t="s">
+        <v>20</v>
+      </c>
+      <c r="F263" t="s">
+        <v>21</v>
+      </c>
+      <c r="G263" t="s">
+        <v>22</v>
+      </c>
+      <c r="H263" t="s">
+        <v>23</v>
+      </c>
+      <c r="I263" t="s">
+        <v>128</v>
+      </c>
+      <c r="J263" t="s">
+        <v>95</v>
+      </c>
+      <c r="K263" t="s">
+        <v>11</v>
+      </c>
+      <c r="L263" t="s">
+        <v>12</v>
+      </c>
+      <c r="M263" t="s">
+        <v>13</v>
+      </c>
+      <c r="N263" t="s">
+        <v>14</v>
+      </c>
+      <c r="O263" t="s">
+        <v>86</v>
+      </c>
+      <c r="P263" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q263" t="s">
+        <v>89</v>
+      </c>
+      <c r="R263" t="s">
+        <v>57</v>
+      </c>
+      <c r="S263" t="s">
+        <v>15</v>
+      </c>
+      <c r="T263" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21">
+      <c r="D264">
+        <v>385</v>
+      </c>
+      <c r="E264">
+        <v>18</v>
+      </c>
+      <c r="F264">
+        <v>90.07</v>
+      </c>
+      <c r="I264">
+        <v>2100</v>
+      </c>
+      <c r="K264">
+        <v>583</v>
+      </c>
+      <c r="L264">
+        <v>417</v>
+      </c>
+      <c r="M264">
+        <v>43.2</v>
+      </c>
+      <c r="N264">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="P264">
+        <v>256</v>
+      </c>
+      <c r="R264">
+        <v>550</v>
+      </c>
+      <c r="S264" t="s">
+        <v>182</v>
+      </c>
+      <c r="T264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21">
+      <c r="B268" t="s">
+        <v>88</v>
+      </c>
+      <c r="C268" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21" s="6" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A270" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21">
+      <c r="C271" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A272" t="s">
+        <v>164</v>
+      </c>
+      <c r="C272" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272" t="s">
+        <v>9</v>
+      </c>
+      <c r="E272" t="s">
+        <v>20</v>
+      </c>
+      <c r="F272" t="s">
+        <v>21</v>
+      </c>
+      <c r="G272" t="s">
+        <v>22</v>
+      </c>
+      <c r="H272" t="s">
+        <v>23</v>
+      </c>
+      <c r="I272" t="s">
+        <v>10</v>
+      </c>
+      <c r="J272" t="s">
+        <v>16</v>
+      </c>
+      <c r="K272" t="s">
+        <v>11</v>
+      </c>
+      <c r="L272" t="s">
+        <v>12</v>
+      </c>
+      <c r="M272" t="s">
+        <v>13</v>
+      </c>
+      <c r="N272" t="s">
+        <v>14</v>
+      </c>
+      <c r="O272" t="s">
+        <v>86</v>
+      </c>
+      <c r="P272" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q272" t="s">
+        <v>89</v>
+      </c>
+      <c r="R272" t="s">
+        <v>57</v>
+      </c>
+      <c r="S272" t="s">
+        <v>15</v>
+      </c>
+      <c r="T272" t="s">
+        <v>18</v>
+      </c>
+      <c r="U272" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="273" spans="1:22">
+      <c r="A273">
+        <v>1249</v>
+      </c>
+      <c r="C273">
+        <v>240</v>
+      </c>
+      <c r="D273">
+        <v>187.5</v>
+      </c>
+      <c r="E273">
+        <v>18</v>
+      </c>
+      <c r="F273">
+        <v>90.07</v>
+      </c>
+      <c r="G273">
+        <v>377611163</v>
+      </c>
+      <c r="H273">
+        <v>346000224</v>
+      </c>
+      <c r="I273">
+        <v>3250</v>
+      </c>
+      <c r="J273">
+        <v>270</v>
+      </c>
+      <c r="K273">
+        <v>500</v>
+      </c>
+      <c r="L273">
+        <v>500</v>
+      </c>
+      <c r="M273">
+        <v>50</v>
+      </c>
+      <c r="N273">
+        <v>50</v>
+      </c>
+      <c r="O273" s="11">
+        <f>(K273-L273)/(K273+L273)</f>
+        <v>0</v>
+      </c>
+      <c r="P273" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q273" s="8">
+        <f xml:space="preserve"> $C$187/(I273-J273)</f>
+        <v>83.892617449664428</v>
+      </c>
+      <c r="R273" s="16">
+        <v>80</v>
+      </c>
+      <c r="S273" t="s">
+        <v>185</v>
+      </c>
+      <c r="T273">
+        <v>0</v>
+      </c>
+      <c r="U273">
+        <v>1</v>
+      </c>
+      <c r="V273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:22">
+      <c r="C274">
+        <v>240</v>
+      </c>
+      <c r="D274">
+        <v>185.5</v>
+      </c>
+      <c r="E274">
+        <v>18</v>
+      </c>
+      <c r="F274">
+        <v>90.07</v>
+      </c>
+      <c r="I274">
+        <v>3150</v>
+      </c>
+      <c r="J274">
+        <v>220</v>
+      </c>
+      <c r="K274">
+        <v>550</v>
+      </c>
+      <c r="L274">
+        <v>450</v>
+      </c>
+      <c r="M274">
+        <v>50</v>
+      </c>
+      <c r="N274">
+        <v>50</v>
+      </c>
+      <c r="O274" s="11">
+        <f>(K274-L274)/(K274+L274)</f>
+        <v>0.1</v>
+      </c>
+      <c r="P274" s="16">
+        <v>256</v>
+      </c>
+      <c r="R274">
+        <v>80</v>
+      </c>
+      <c r="T274">
+        <v>1</v>
+      </c>
+      <c r="U274">
+        <v>1</v>
+      </c>
+      <c r="V274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:22">
+      <c r="O275" s="11"/>
+    </row>
+    <row r="276" spans="1:22">
+      <c r="C276">
+        <v>240</v>
+      </c>
+      <c r="D276">
+        <v>185.5</v>
+      </c>
+      <c r="E276">
+        <v>18</v>
+      </c>
+      <c r="F276">
+        <v>90.07</v>
+      </c>
+      <c r="I276">
+        <v>3050</v>
+      </c>
+      <c r="J276">
+        <v>220</v>
+      </c>
+      <c r="K276">
+        <v>569</v>
+      </c>
+      <c r="L276">
+        <v>431</v>
+      </c>
+      <c r="M276">
+        <v>50</v>
+      </c>
+      <c r="N276">
+        <v>50</v>
+      </c>
+      <c r="O276" s="11">
+        <f t="shared" ref="O275:O287" si="17">(K276-L276)/(K276+L276)</f>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="P276" s="16">
+        <v>256</v>
+      </c>
+      <c r="R276">
+        <v>80</v>
+      </c>
+      <c r="S276" t="s">
+        <v>186</v>
+      </c>
+      <c r="T276">
+        <v>0</v>
+      </c>
+      <c r="U276">
+        <v>2</v>
+      </c>
+      <c r="V276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22">
+      <c r="A277">
+        <v>1256</v>
+      </c>
+      <c r="I277">
+        <v>3100</v>
+      </c>
+      <c r="J277">
+        <v>220</v>
+      </c>
+      <c r="K277">
+        <v>603</v>
+      </c>
+      <c r="L277">
+        <v>397</v>
+      </c>
+      <c r="M277">
+        <v>50</v>
+      </c>
+      <c r="N277">
+        <v>50</v>
+      </c>
+      <c r="O277" s="11">
+        <f t="shared" si="17"/>
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="P277" s="16">
+        <v>256</v>
+      </c>
+      <c r="R277">
+        <v>80</v>
+      </c>
+      <c r="T277">
+        <v>1</v>
+      </c>
+      <c r="U277">
+        <v>2</v>
+      </c>
+      <c r="V277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:22">
+      <c r="O278" s="11"/>
+    </row>
+    <row r="279" spans="1:22">
+      <c r="I279">
+        <v>3000</v>
+      </c>
+      <c r="J279">
+        <v>220</v>
+      </c>
+      <c r="K279">
+        <v>585</v>
+      </c>
+      <c r="L279">
+        <v>415</v>
+      </c>
+      <c r="M279">
+        <v>50</v>
+      </c>
+      <c r="N279">
+        <v>50</v>
+      </c>
+      <c r="O279" s="11">
+        <f t="shared" si="17"/>
+        <v>0.17</v>
+      </c>
+      <c r="P279" s="16">
+        <v>256</v>
+      </c>
+      <c r="R279">
+        <v>80</v>
+      </c>
+      <c r="S279" t="s">
+        <v>187</v>
+      </c>
+      <c r="T279">
+        <v>0</v>
+      </c>
+      <c r="U279">
+        <v>3</v>
+      </c>
+      <c r="V279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:22">
+      <c r="A280">
+        <v>1258</v>
+      </c>
+      <c r="C280">
+        <v>240</v>
+      </c>
+      <c r="D280">
+        <v>185.5</v>
+      </c>
+      <c r="E280">
+        <v>18</v>
+      </c>
+      <c r="F280">
+        <v>90.07</v>
+      </c>
+      <c r="G280">
+        <v>377611164</v>
+      </c>
+      <c r="H280">
+        <v>346000228</v>
+      </c>
+      <c r="I280">
+        <v>3100</v>
+      </c>
+      <c r="J280">
+        <v>220</v>
+      </c>
+      <c r="K280">
+        <v>580</v>
+      </c>
+      <c r="L280">
+        <v>420</v>
+      </c>
+      <c r="M280">
+        <v>50</v>
+      </c>
+      <c r="N280">
+        <v>50</v>
+      </c>
+      <c r="O280" s="11">
+        <f t="shared" si="17"/>
+        <v>0.16</v>
+      </c>
+      <c r="P280" s="16">
+        <v>256</v>
+      </c>
+      <c r="R280">
+        <v>80</v>
+      </c>
+      <c r="T280">
+        <v>1</v>
+      </c>
+      <c r="U280">
+        <v>3</v>
+      </c>
+      <c r="V280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22">
+      <c r="O281" s="11"/>
+    </row>
+    <row r="282" spans="1:22">
+      <c r="A282">
+        <v>1259</v>
+      </c>
+      <c r="C282">
+        <v>240</v>
+      </c>
+      <c r="D282">
+        <v>185.5</v>
+      </c>
+      <c r="I282">
+        <v>3100</v>
+      </c>
+      <c r="J282">
+        <v>220</v>
+      </c>
+      <c r="K282">
+        <v>581</v>
+      </c>
+      <c r="L282">
+        <v>419</v>
+      </c>
+      <c r="M282">
+        <v>50</v>
+      </c>
+      <c r="N282">
+        <v>50</v>
+      </c>
+      <c r="O282" s="11">
+        <f t="shared" si="17"/>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="P282" s="16">
+        <v>256</v>
+      </c>
+      <c r="R282">
+        <v>80</v>
+      </c>
+      <c r="S282" t="s">
+        <v>188</v>
+      </c>
+      <c r="T282">
+        <v>2</v>
+      </c>
+      <c r="V282">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22">
+      <c r="I283">
+        <v>3100</v>
+      </c>
+      <c r="J283">
+        <v>220</v>
+      </c>
+      <c r="K283">
+        <v>582</v>
+      </c>
+      <c r="L283">
+        <v>418</v>
+      </c>
+      <c r="M283">
+        <v>50</v>
+      </c>
+      <c r="N283">
+        <v>50</v>
+      </c>
+      <c r="O283" s="11">
+        <f t="shared" si="17"/>
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="P283" s="16">
+        <v>256</v>
+      </c>
+      <c r="R283">
+        <v>80</v>
+      </c>
+      <c r="T283">
+        <v>3</v>
+      </c>
+      <c r="V283">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22">
+      <c r="C284">
+        <v>240</v>
+      </c>
+      <c r="D284">
+        <v>185.5</v>
+      </c>
+      <c r="E284">
+        <v>18</v>
+      </c>
+      <c r="F284">
+        <v>90.07</v>
+      </c>
+      <c r="G284">
+        <v>377611177</v>
+      </c>
+      <c r="H284">
+        <v>346000231</v>
+      </c>
+      <c r="I284">
+        <v>3200</v>
+      </c>
+      <c r="J284">
+        <v>220</v>
+      </c>
+      <c r="K284">
+        <v>583</v>
+      </c>
+      <c r="L284">
+        <v>417</v>
+      </c>
+      <c r="M284">
+        <v>50</v>
+      </c>
+      <c r="N284">
+        <v>50</v>
+      </c>
+      <c r="O284" s="11">
+        <f t="shared" si="17"/>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="P284" s="16">
+        <v>256</v>
+      </c>
+      <c r="R284">
+        <v>80</v>
+      </c>
+      <c r="T284">
+        <v>4</v>
+      </c>
+      <c r="V284">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22">
+      <c r="C285">
+        <v>240</v>
+      </c>
+      <c r="D285">
+        <v>185.5</v>
+      </c>
+      <c r="I285">
+        <v>3100</v>
+      </c>
+      <c r="J285">
+        <v>220</v>
+      </c>
+      <c r="K285">
+        <v>584</v>
+      </c>
+      <c r="L285">
+        <v>416</v>
+      </c>
+      <c r="M285">
+        <v>50</v>
+      </c>
+      <c r="N285">
+        <v>50</v>
+      </c>
+      <c r="O285" s="11">
+        <f t="shared" si="17"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="P285" s="16">
+        <v>256</v>
+      </c>
+      <c r="R285">
+        <v>80</v>
+      </c>
+      <c r="T285">
+        <v>5</v>
+      </c>
+      <c r="V285">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22">
+      <c r="O286" s="11"/>
+    </row>
+    <row r="287" spans="1:22">
+      <c r="C287">
+        <v>240</v>
+      </c>
+      <c r="D287">
+        <v>185.5</v>
+      </c>
+      <c r="E287">
+        <v>18</v>
+      </c>
+      <c r="F287">
+        <v>90.07</v>
+      </c>
+      <c r="G287">
+        <v>377611169</v>
+      </c>
+      <c r="H287">
+        <v>346000230</v>
+      </c>
+      <c r="I287">
+        <v>3050</v>
+      </c>
+      <c r="J287">
+        <v>220</v>
+      </c>
+      <c r="K287" s="1">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="L287" s="1">
+        <v>418.2</v>
+      </c>
+      <c r="M287">
+        <v>50</v>
+      </c>
+      <c r="N287">
+        <v>50</v>
+      </c>
+      <c r="O287" s="11">
+        <f t="shared" si="17"/>
+        <v>0.16359999999999997</v>
+      </c>
+      <c r="P287" s="16">
+        <v>256</v>
+      </c>
+      <c r="R287">
+        <v>400</v>
+      </c>
+      <c r="T287">
+        <v>6</v>
+      </c>
+      <c r="V287">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20">
+      <c r="C290" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D290" s="23"/>
+      <c r="E290" s="23"/>
+      <c r="F290" s="23"/>
+      <c r="G290" s="23"/>
+      <c r="H290" s="23"/>
+      <c r="I290" s="23"/>
+      <c r="J290" s="23"/>
+      <c r="K290" s="23"/>
+      <c r="L290" s="23"/>
+      <c r="M290" s="23"/>
+      <c r="N290" s="23"/>
+      <c r="O290" s="23"/>
+      <c r="P290" s="23"/>
+      <c r="Q290" s="23"/>
+      <c r="R290" s="23"/>
+      <c r="S290" s="23"/>
+      <c r="T290" s="23"/>
+    </row>
+    <row r="291" spans="1:20">
+      <c r="C291" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D291" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E291" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F291" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G291" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H291" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I291" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J291" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L291" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M291" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N291" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O291" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P291" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q291" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R291" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="S291" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T291" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20">
+      <c r="C292" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D292" s="11">
+        <v>18</v>
+      </c>
+      <c r="E292" s="11">
+        <v>90.07</v>
+      </c>
+      <c r="F292" s="11">
+        <v>377611150</v>
+      </c>
+      <c r="G292" s="11">
+        <v>346000206</v>
+      </c>
+      <c r="H292" s="16">
+        <v>3150</v>
+      </c>
+      <c r="I292" s="16">
+        <v>170</v>
+      </c>
+      <c r="J292" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K292" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L292" s="11">
+        <v>50</v>
+      </c>
+      <c r="M292" s="11">
+        <v>50</v>
+      </c>
+      <c r="N292" s="11"/>
+      <c r="O292" s="11">
+        <v>256</v>
+      </c>
+      <c r="P292" s="11">
+        <f>$C$187/(H292-I292)</f>
+        <v>83.892617449664428</v>
+      </c>
+      <c r="Q292" s="11">
+        <v>80</v>
+      </c>
+      <c r="R292" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="S292" s="11">
+        <v>0</v>
+      </c>
+      <c r="T292" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20">
+      <c r="A293">
+        <v>1261</v>
+      </c>
+      <c r="C293">
+        <v>202</v>
+      </c>
+      <c r="D293">
+        <v>18</v>
+      </c>
+      <c r="E293">
+        <v>90.07</v>
+      </c>
+      <c r="H293">
+        <v>3150</v>
+      </c>
+      <c r="I293">
+        <v>170</v>
+      </c>
+      <c r="J293" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K293" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L293" s="11">
+        <v>30</v>
+      </c>
+      <c r="M293" s="11">
+        <v>50</v>
+      </c>
+      <c r="O293">
+        <v>256</v>
+      </c>
+      <c r="Q293">
+        <v>80</v>
+      </c>
+      <c r="S293">
+        <v>1</v>
+      </c>
+      <c r="T293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20">
+      <c r="C295">
+        <v>202</v>
+      </c>
+      <c r="D295">
+        <v>18</v>
+      </c>
+      <c r="E295">
+        <v>90.07</v>
+      </c>
+      <c r="H295">
+        <v>3000</v>
+      </c>
+      <c r="I295">
+        <v>170</v>
+      </c>
+      <c r="J295" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K295" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L295" s="11">
+        <v>41</v>
+      </c>
+      <c r="M295" s="11">
+        <v>50</v>
+      </c>
+      <c r="O295">
+        <v>256</v>
+      </c>
+      <c r="Q295">
+        <v>80</v>
+      </c>
+      <c r="R295" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="S295">
+        <v>0</v>
+      </c>
+      <c r="T295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20">
+      <c r="C296">
+        <v>202</v>
+      </c>
+      <c r="H296">
+        <v>3000</v>
+      </c>
+      <c r="I296">
+        <v>170</v>
+      </c>
+      <c r="J296" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K296" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L296" s="11">
+        <v>44.5</v>
+      </c>
+      <c r="M296" s="11">
+        <v>50</v>
+      </c>
+      <c r="O296">
+        <v>256</v>
+      </c>
+      <c r="Q296">
+        <v>80</v>
+      </c>
+      <c r="S296">
+        <v>1</v>
+      </c>
+      <c r="T296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20">
+      <c r="C298">
+        <v>202</v>
+      </c>
+      <c r="D298">
+        <v>18</v>
+      </c>
+      <c r="E298">
+        <v>90.07</v>
+      </c>
+      <c r="F298">
+        <v>377611165</v>
+      </c>
+      <c r="G298">
+        <v>346000229</v>
+      </c>
+      <c r="H298">
+        <v>3200</v>
+      </c>
+      <c r="I298">
+        <v>170</v>
+      </c>
+      <c r="J298" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K298" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L298" s="11">
+        <v>43.3</v>
+      </c>
+      <c r="M298" s="11">
+        <v>50</v>
+      </c>
+      <c r="O298">
+        <v>256</v>
+      </c>
+      <c r="Q298">
+        <v>80</v>
+      </c>
+      <c r="R298" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S298">
+        <v>0</v>
+      </c>
+      <c r="T298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20">
+      <c r="H299">
+        <v>3200</v>
+      </c>
+      <c r="I299">
+        <v>170</v>
+      </c>
+      <c r="J299" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K299" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L299" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M299" s="11">
+        <v>50</v>
+      </c>
+      <c r="O299">
+        <v>256</v>
+      </c>
+      <c r="Q299">
+        <v>80</v>
+      </c>
+      <c r="S299">
+        <v>1</v>
+      </c>
+      <c r="T299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20">
+      <c r="A301">
+        <v>1262</v>
+      </c>
+      <c r="C301">
+        <v>202</v>
+      </c>
+      <c r="D301">
+        <v>18</v>
+      </c>
+      <c r="E301">
+        <v>90.07</v>
+      </c>
+      <c r="H301">
+        <v>3250</v>
+      </c>
+      <c r="I301">
+        <v>170</v>
+      </c>
+      <c r="J301" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K301" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L301" s="11">
+        <v>42.8</v>
+      </c>
+      <c r="M301" s="11">
+        <v>50</v>
+      </c>
+      <c r="O301">
+        <v>256</v>
+      </c>
+      <c r="Q301">
+        <v>80</v>
+      </c>
+      <c r="R301" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="S301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20">
+      <c r="H302">
+        <v>3200</v>
+      </c>
+      <c r="I302">
+        <v>170</v>
+      </c>
+      <c r="J302" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K302" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L302" s="11">
+        <v>42.9</v>
+      </c>
+      <c r="M302" s="11">
+        <v>50</v>
+      </c>
+      <c r="O302">
+        <v>256</v>
+      </c>
+      <c r="Q302">
+        <v>80</v>
+      </c>
+      <c r="S302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20">
+      <c r="H303">
+        <v>3200</v>
+      </c>
+      <c r="I303">
+        <v>170</v>
+      </c>
+      <c r="J303" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K303" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L303" s="11">
+        <v>43</v>
+      </c>
+      <c r="M303" s="11">
+        <v>50</v>
+      </c>
+      <c r="O303">
+        <v>256</v>
+      </c>
+      <c r="Q303">
+        <v>80</v>
+      </c>
+      <c r="S303">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20">
+      <c r="C304">
+        <v>202</v>
+      </c>
+      <c r="H304">
+        <v>3200</v>
+      </c>
+      <c r="I304">
+        <v>170</v>
+      </c>
+      <c r="J304" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K304" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L304" s="11">
+        <v>43.1</v>
+      </c>
+      <c r="M304" s="11">
+        <v>50</v>
+      </c>
+      <c r="O304">
+        <v>256</v>
+      </c>
+      <c r="Q304">
+        <v>80</v>
+      </c>
+      <c r="S304">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19">
+      <c r="A306">
+        <v>1262</v>
+      </c>
+      <c r="C306">
+        <v>202</v>
+      </c>
+      <c r="D306">
+        <v>18</v>
+      </c>
+      <c r="E306">
+        <v>90.07</v>
+      </c>
+      <c r="F306">
+        <v>377611153</v>
+      </c>
+      <c r="G306">
+        <v>346000204</v>
+      </c>
+      <c r="H306">
+        <v>3200</v>
+      </c>
+      <c r="I306">
+        <v>170</v>
+      </c>
+      <c r="J306" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K306" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L306" s="26">
+        <v>43.1</v>
+      </c>
+      <c r="M306" s="11">
+        <v>50</v>
+      </c>
+      <c r="O306">
+        <v>256</v>
+      </c>
+      <c r="Q306">
+        <v>400</v>
+      </c>
+      <c r="S306">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19">
+      <c r="C307">
+        <v>202</v>
+      </c>
+      <c r="H307">
+        <v>3200</v>
+      </c>
+      <c r="I307">
+        <v>170</v>
+      </c>
+      <c r="J307" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K307" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L307" s="27">
+        <v>43.3</v>
+      </c>
+      <c r="M307" s="11">
+        <v>50</v>
+      </c>
+      <c r="O307">
+        <v>256</v>
+      </c>
+      <c r="Q307">
+        <v>400</v>
+      </c>
+      <c r="S307">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19" s="11" customFormat="1"/>
+    <row r="310" spans="1:19">
+      <c r="C310" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D310" s="23"/>
+      <c r="E310" s="23"/>
+      <c r="F310" s="23"/>
+      <c r="G310" s="23"/>
+      <c r="H310" s="23"/>
+      <c r="I310" s="23"/>
+      <c r="J310" s="23"/>
+      <c r="K310" s="23"/>
+      <c r="L310" s="23"/>
+      <c r="M310" s="23"/>
+      <c r="N310" s="23"/>
+      <c r="O310" s="23"/>
+      <c r="P310" s="23"/>
+      <c r="Q310" s="23"/>
+      <c r="R310" s="23"/>
+      <c r="S310" s="23"/>
+    </row>
+    <row r="311" spans="1:19">
+      <c r="C311" t="s">
+        <v>125</v>
+      </c>
+      <c r="D311" t="s">
+        <v>20</v>
+      </c>
+      <c r="E311" t="s">
+        <v>21</v>
+      </c>
+      <c r="F311" t="s">
+        <v>22</v>
+      </c>
+      <c r="G311" t="s">
+        <v>23</v>
+      </c>
+      <c r="H311" t="s">
+        <v>128</v>
+      </c>
+      <c r="I311" t="s">
+        <v>95</v>
+      </c>
+      <c r="J311" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" t="s">
+        <v>12</v>
+      </c>
+      <c r="L311" t="s">
+        <v>13</v>
+      </c>
+      <c r="M311" t="s">
+        <v>14</v>
+      </c>
+      <c r="N311" t="s">
+        <v>86</v>
+      </c>
+      <c r="O311" t="s">
+        <v>56</v>
+      </c>
+      <c r="P311" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q311" t="s">
+        <v>57</v>
+      </c>
+      <c r="R311" t="s">
+        <v>15</v>
+      </c>
+      <c r="S311" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19">
+      <c r="C312">
+        <v>385</v>
+      </c>
+      <c r="D312">
+        <v>18</v>
+      </c>
+      <c r="E312">
+        <v>90.07</v>
+      </c>
+      <c r="F312">
+        <v>377611153</v>
+      </c>
+      <c r="G312">
+        <v>346000207</v>
+      </c>
+      <c r="H312">
+        <v>1800</v>
+      </c>
+      <c r="J312" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K312" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L312" s="27">
+        <v>43.1</v>
+      </c>
+      <c r="M312" s="11">
+        <v>50</v>
+      </c>
+      <c r="O312">
+        <v>256</v>
+      </c>
+      <c r="P312" s="11">
+        <f>$C$268/(H312-I312)</f>
+        <v>138.88888888888889</v>
+      </c>
+      <c r="Q312">
+        <v>120</v>
+      </c>
+      <c r="R312" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="S312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:19">
+      <c r="C313">
+        <v>385</v>
+      </c>
+      <c r="H313">
+        <v>1700</v>
+      </c>
+      <c r="J313" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K313" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L313" s="27">
+        <v>43.1</v>
+      </c>
+      <c r="M313" s="11">
+        <v>30</v>
+      </c>
+      <c r="O313">
+        <v>256</v>
+      </c>
+      <c r="Q313">
+        <v>120</v>
+      </c>
+      <c r="S313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19">
+      <c r="C315">
+        <v>385</v>
+      </c>
+      <c r="H315">
+        <v>1700</v>
+      </c>
+      <c r="J315" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K315" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L315" s="27">
+        <v>43.1</v>
+      </c>
+      <c r="M315" s="11">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="O315">
+        <v>256</v>
+      </c>
+      <c r="Q315">
+        <v>120</v>
+      </c>
+      <c r="R315" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="S315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19">
+      <c r="C316">
+        <v>385</v>
+      </c>
+      <c r="D316">
+        <v>18</v>
+      </c>
+      <c r="E316">
+        <v>90.07</v>
+      </c>
+      <c r="H316">
+        <v>1700</v>
+      </c>
+      <c r="J316" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K316" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L316" s="27">
+        <v>43.1</v>
+      </c>
+      <c r="M316" s="11">
+        <v>39.6</v>
+      </c>
+      <c r="O316">
+        <v>256</v>
+      </c>
+      <c r="Q316">
+        <v>120</v>
+      </c>
+      <c r="S316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19">
+      <c r="A318">
+        <v>1264</v>
+      </c>
+      <c r="C318">
+        <v>385</v>
+      </c>
+      <c r="D318">
+        <v>18</v>
+      </c>
+      <c r="E318">
+        <v>90.07</v>
+      </c>
+      <c r="H318">
+        <v>1700</v>
+      </c>
+      <c r="J318" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K318" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L318" s="27">
+        <v>43.1</v>
+      </c>
+      <c r="M318" s="11">
+        <v>39.1</v>
+      </c>
+      <c r="O318">
+        <v>256</v>
+      </c>
+      <c r="Q318">
+        <v>120</v>
+      </c>
+      <c r="R318" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="S318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19">
+      <c r="C319">
+        <v>385</v>
+      </c>
+      <c r="D319">
+        <v>18</v>
+      </c>
+      <c r="E319">
+        <v>90.07</v>
+      </c>
+      <c r="H319">
+        <v>1600</v>
+      </c>
+      <c r="J319" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K319" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L319" s="27">
+        <v>43.1</v>
+      </c>
+      <c r="M319" s="11">
+        <v>39</v>
+      </c>
+      <c r="O319">
+        <v>256</v>
+      </c>
+      <c r="Q319">
+        <v>120</v>
+      </c>
+      <c r="S319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19">
+      <c r="H320">
+        <v>1700</v>
+      </c>
+      <c r="J320" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K320" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L320" s="27">
+        <v>43.1</v>
+      </c>
+      <c r="M320" s="11">
+        <v>38.9</v>
+      </c>
+      <c r="O320">
+        <v>256</v>
+      </c>
+      <c r="Q320">
+        <v>120</v>
+      </c>
+      <c r="S320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19">
+      <c r="H321">
+        <v>1700</v>
+      </c>
+      <c r="J321" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K321" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L321" s="27">
+        <v>43.1</v>
+      </c>
+      <c r="M321" s="11">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="O321">
+        <v>256</v>
+      </c>
+      <c r="Q321">
+        <v>120</v>
+      </c>
+      <c r="S321">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19">
+      <c r="H322">
+        <v>1700</v>
+      </c>
+      <c r="J322" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K322" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L322" s="27">
+        <v>43.1</v>
+      </c>
+      <c r="M322" s="11">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="O322">
+        <v>256</v>
+      </c>
+      <c r="Q322">
+        <v>120</v>
+      </c>
+      <c r="S322">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:19">
+      <c r="C323">
+        <v>385</v>
+      </c>
+      <c r="D323">
+        <v>18</v>
+      </c>
+      <c r="E323">
+        <v>90.07</v>
+      </c>
+      <c r="H323">
+        <v>1700</v>
+      </c>
+      <c r="J323" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K323" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L323" s="27">
+        <v>43.1</v>
+      </c>
+      <c r="M323" s="11">
+        <v>38.6</v>
+      </c>
+      <c r="O323">
+        <v>256</v>
+      </c>
+      <c r="Q323">
+        <v>120</v>
+      </c>
+      <c r="S323">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19">
+      <c r="A324">
+        <v>1264</v>
+      </c>
+      <c r="C324">
+        <v>385</v>
+      </c>
+      <c r="H324">
+        <v>1700</v>
+      </c>
+      <c r="J324" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K324" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L324" s="27">
+        <v>43.1</v>
+      </c>
+      <c r="M324" s="11">
+        <v>38.9</v>
+      </c>
+      <c r="O324">
+        <v>256</v>
+      </c>
+      <c r="Q324">
+        <v>550</v>
+      </c>
+      <c r="S324">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:19">
+      <c r="H325">
+        <v>1700</v>
+      </c>
+      <c r="J325" s="11">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="K325" s="11">
+        <v>418.2</v>
+      </c>
+      <c r="L325" s="27">
+        <v>43.1</v>
+      </c>
+      <c r="M325" s="26">
+        <v>39</v>
+      </c>
+      <c r="O325">
+        <v>256</v>
+      </c>
+      <c r="Q325">
+        <v>550</v>
+      </c>
+      <c r="S325">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19">
+      <c r="A327" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19">
+      <c r="A328" t="s">
+        <v>198</v>
+      </c>
+      <c r="B328" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19">
+      <c r="B329" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/EMM_minim/algoritmus minimalizace/EMM_min_pomocne_data.xlsx
+++ b/EMM_minim/algoritmus minimalizace/EMM_min_pomocne_data.xlsx
@@ -857,7 +857,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1198,7 +1197,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4811,8 +4809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B331" sqref="B331"/>
+    <sheetView tabSelected="1" topLeftCell="H310" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H313" sqref="H313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10600,14 +10598,14 @@
         <v>50</v>
       </c>
       <c r="O195" s="11">
-        <f t="shared" ref="O194:O207" si="13">(K195-L195)/(K195+L195)</f>
+        <f t="shared" ref="O195:O207" si="13">(K195-L195)/(K195+L195)</f>
         <v>0.13800000000000001</v>
       </c>
       <c r="P195" s="16">
         <v>256</v>
       </c>
       <c r="Q195" s="8">
-        <f t="shared" ref="Q194:Q205" si="14" xml:space="preserve"> $C$187/(I195-J195)</f>
+        <f t="shared" ref="Q195:Q205" si="14" xml:space="preserve"> $C$187/(I195-J195)</f>
         <v>86.206896551724142</v>
       </c>
       <c r="R195" s="16">
@@ -11260,7 +11258,7 @@
         <v>256</v>
       </c>
       <c r="P214" s="11">
-        <f t="shared" ref="P213:P215" si="15">$C$187/(H214-I214)</f>
+        <f t="shared" ref="P214:P215" si="15">$C$187/(H214-I214)</f>
         <v>79.617834394904463</v>
       </c>
       <c r="Q214" s="16">
@@ -11771,7 +11769,7 @@
         <v>256</v>
       </c>
       <c r="P236" s="11">
-        <f t="shared" ref="P235:P240" si="16">$C$187/(H236-I236)</f>
+        <f t="shared" ref="P236:P240" si="16">$C$187/(H236-I236)</f>
         <v>113.63636363636364</v>
       </c>
       <c r="Q236">
@@ -12622,7 +12620,7 @@
         <v>50</v>
       </c>
       <c r="O276" s="11">
-        <f t="shared" ref="O275:O287" si="17">(K276-L276)/(K276+L276)</f>
+        <f t="shared" ref="O276:O287" si="17">(K276-L276)/(K276+L276)</f>
         <v>0.13800000000000001</v>
       </c>
       <c r="P276" s="16">
